--- a/QuantLibXL/Data2/XLS/JPY_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_Market.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15210" windowHeight="8625" tabRatio="879"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="15195" windowHeight="8625" tabRatio="879"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="56" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="296">
   <si>
     <t>Currency</t>
   </si>
@@ -1094,7 +1094,7 @@
     <numFmt numFmtId="174" formatCode="0.000%"/>
     <numFmt numFmtId="175" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ h:mm:ss"/>
     <numFmt numFmtId="176" formatCode="ddd\,\ dd\-mmm\-yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="178" formatCode="ddd\,\ dd\-mmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="ddd\,\ dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -1107,6 +1107,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1170,6 +1171,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1181,6 +1183,7 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2443,7 +2446,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="11" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="9" fillId="0" borderId="19" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="11" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="20" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2451,14 +2454,14 @@
     <xf numFmtId="170" fontId="5" fillId="0" borderId="21" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="11" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="9" fillId="0" borderId="21" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="22" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="23" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="24" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="11" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="23" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="23" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="23" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="9" fillId="0" borderId="24" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="9" fillId="0" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2619,7 +2622,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="26" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="26" fillId="0" borderId="21" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="26" fillId="0" borderId="20" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2719,6 +2722,9 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2733,9 +2739,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -3001,106 +3004,106 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
         <stp/>
-        <stp>{02242B46-D699-48B0-8411-9D0154468311}</stp>
+        <stp>{3D8338EE-4769-4DD4-A4F1-073622ED099D}</stp>
+        <tr r="O5" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:37:08</v>
+        <stp/>
+        <stp>{CBE1946A-815F-4242-A32C-A0C7234BB5C2}</stp>
+        <tr r="S4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:37:08</v>
+        <stp/>
+        <stp>{CF3D44DE-1BBB-4AAC-975E-49D930751F6D}</stp>
+        <tr r="N4" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:37:08</v>
+        <stp/>
+        <stp>{B4BC67F2-D0F4-4CC4-B13D-EB3618A4820F}</stp>
+        <tr r="O5" s="66"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:37:08</v>
+        <stp/>
+        <stp>{C8F47B48-2405-4D34-AB8E-B91B4F69D676}</stp>
+        <tr r="K5" s="64"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:37:08</v>
+        <stp/>
+        <stp>{DAFD005B-1208-4CE3-A5D1-ECE4DA63A623}</stp>
+        <tr r="S4" s="65"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:37:08</v>
+        <stp/>
+        <stp>{0A307EEA-38BF-4F82-A073-25B55F728771}</stp>
+        <tr r="K5" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:37:08</v>
+        <stp/>
+        <stp>{6557C191-0155-4AD2-B6BB-7DF060549464}</stp>
+        <tr r="U27" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:37:08</v>
+        <stp/>
+        <stp>{E7683598-B804-4E4D-BB5B-F61F3DFF748A}</stp>
+        <tr r="S4" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:37:08</v>
+        <stp/>
+        <stp>{51C50C8B-E0FC-45CD-80C5-FD6A4C7CA491}</stp>
+        <tr r="M6" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:37:08</v>
+        <stp/>
+        <stp>{DA1407F1-A12C-4382-9DCD-DB02EB542CC8}</stp>
         <tr r="S4" s="11"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
         <stp/>
-        <stp>{8D2E95F8-7EC3-4028-804B-D3F0D0517A55}</stp>
+        <stp>{E6F49317-CA5B-4EE5-BED3-345622B0AD04}</stp>
+        <tr r="M6" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:37:08</v>
+        <stp/>
+        <stp>{6FCAEE4A-890E-4701-A97D-089DC9BA051F}</stp>
+        <tr r="S4" s="26"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:37:08</v>
+        <stp/>
+        <stp>{ED6823B0-84F4-43B0-AF32-F9F1EBE0E01A}</stp>
         <tr r="O4" s="22"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
         <stp/>
-        <stp>{BB6CD0BD-8A79-418B-A362-B44D862E7745}</stp>
-        <tr r="S4" s="26"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:52:04</v>
-        <stp/>
-        <stp>{C1EBDFC0-6B27-4063-BAB1-475505B24A02}</stp>
-        <tr r="U27" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:52:04</v>
-        <stp/>
-        <stp>{09689C52-6F3F-4825-8B37-55124CC9041E}</stp>
-        <tr r="K5" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:52:04</v>
-        <stp/>
-        <stp>{C8B09D96-FFDA-4DE8-B6EF-BB583519B6E5}</stp>
-        <tr r="S4" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:52:04</v>
-        <stp/>
-        <stp>{D9E1CB65-C130-401A-81BB-158BEE9AE589}</stp>
-        <tr r="S4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:52:05</v>
-        <stp/>
-        <stp>{DA1973BA-89C8-44E7-AC46-2F001382552D}</stp>
-        <tr r="O5" s="66"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:52:04</v>
-        <stp/>
-        <stp>{D0AFA208-46BF-4A50-9117-C81EE7723525}</stp>
-        <tr r="S4" s="65"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:52:04</v>
-        <stp/>
-        <stp>{CB5140B3-FD89-48C9-AC3B-23E8D7F5D577}</stp>
-        <tr r="K5" s="64"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:52:04</v>
-        <stp/>
-        <stp>{1BAB19FD-302B-4CBD-B2E5-F6BCCB5CF50A}</stp>
+        <stp>{356CBFC0-9EFE-48B2-AD68-86857F4056D2}</stp>
         <tr r="O4" s="23"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
         <stp/>
-        <stp>{70DB30D1-0CD3-4CB3-9131-81DF86250BF2}</stp>
+        <stp>{A39B38B5-DD1C-4CB2-BA6F-A73028BDDAD3}</stp>
         <tr r="J4" s="15"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
         <stp/>
-        <stp>{8595853C-1520-4C8F-9DC9-E92A044BA6B5}</stp>
+        <stp>{D89A2793-E2CE-415F-8327-D856A9D9CD98}</stp>
         <tr r="H4" s="20"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:52:05</v>
-        <stp/>
-        <stp>{C5D4802D-05C3-445E-B16E-78028C3D09F1}</stp>
-        <tr r="O5" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:52:04</v>
-        <stp/>
-        <stp>{1B1B59AA-A09D-4F2F-840C-AD67F3D9151D}</stp>
-        <tr r="N4" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:52:04</v>
-        <stp/>
-        <stp>{325652AB-BD6B-43A3-9057-93DFA4058131}</stp>
-        <tr r="M6" s="8"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:52:04</v>
-        <stp/>
-        <stp>{2FB348FC-683A-4FB6-AFB1-AEB5DEAB5DEA}</stp>
-        <tr r="M6" s="7"/>
       </tp>
     </main>
   </volType>
@@ -3423,12 +3426,12 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="507" t="s">
+      <c r="B2" s="508" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="508"/>
-      <c r="D2" s="508"/>
-      <c r="E2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="510"/>
       <c r="G2" s="457" t="s">
         <v>7</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="393">
-        <v>41800.613055555557</v>
+        <v>41801.525717592594</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -3505,7 +3508,7 @@
       </c>
       <c r="D7" s="322">
         <f>_xll.ohTrigger(Deposits!P3,FRA!X3,Futures3M!Z4,FuturesHWConvAdj!Q3,Swaps1M!Y3,Swap3M!AC3,,Swap6M!AC3,BasisSwap1MxM!AC3,BasisSwap3M6M!AC3,,OIS!Y3)</f>
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E7" s="312"/>
       <c r="G7" s="6"/>
@@ -3620,7 +3623,7 @@
       </c>
       <c r="I13" s="469">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="J13" s="390"/>
     </row>
@@ -3738,7 +3741,7 @@
         <v>235</v>
       </c>
       <c r="D21" s="409">
-        <v>41795.720891203702</v>
+        <v>41801.525960648149</v>
       </c>
       <c r="E21" s="22"/>
       <c r="G21" s="6"/>
@@ -3867,7 +3870,7 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3949,7 +3952,7 @@
       <c r="O3" s="224"/>
       <c r="P3" s="223">
         <f>_xll.ohTrigger(P5:P18)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="162"/>
       <c r="R3" s="13"/>
@@ -3979,7 +3982,7 @@
       <c r="I4" s="220"/>
       <c r="J4" s="189" t="str">
         <f>_xll.RData(J8:J22,K4,,ReutersRtMode,,K8)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="K4" s="222" t="str">
         <f>VLOOKUP(Contributor,ContributorTable,5,FALSE)</f>
@@ -4038,15 +4041,15 @@
       </c>
       <c r="J5" s="214" t="str">
         <f t="array" ref="J5:J7">Currency&amp;VLOOKUP(U25,ContributorTable,2,FALSE)&amp;I5:I7&amp;VLOOKUP(U25,ContributorTable,3,FALSE)&amp;"="&amp;VLOOKUP(U25,ContributorTable,4,FALSE)</f>
-        <v>JPYOND=ICAP</v>
+        <v>JPYOND=TTKL</v>
       </c>
       <c r="K5" s="213" t="e">
         <f>X28</f>
         <v>#VALUE!</v>
       </c>
       <c r="L5" s="194"/>
-      <c r="M5" s="212">
-        <v>0.10500000000000001</v>
+      <c r="M5" s="212" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="N5" s="194"/>
       <c r="O5" s="261" t="e">
@@ -4099,23 +4102,23 @@
         <v>197</v>
       </c>
       <c r="J6" s="197" t="str">
-        <v>JPYTND=ICAP</v>
-      </c>
-      <c r="K6" s="196" t="e">
+        <v>JPYTND=TTKL</v>
+      </c>
+      <c r="K6" s="196">
         <f>X29</f>
-        <v>#VALUE!</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="L6" s="194"/>
       <c r="M6" s="195">
-        <v>4.5000000000000005E-2</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="N6" s="194"/>
-      <c r="O6" s="254" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P6" s="191" t="e">
+      <c r="O6" s="254">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="P6" s="191">
         <f>_xll.qlSimpleQuoteSetValue(D6,O6/100,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="162"/>
       <c r="R6" s="13"/>
@@ -4154,23 +4157,23 @@
         <v>194</v>
       </c>
       <c r="J7" s="208" t="str">
-        <v>JPYSND=ICAP</v>
-      </c>
-      <c r="K7" s="207" t="e">
+        <v>JPYSND=TTKL</v>
+      </c>
+      <c r="K7" s="207">
         <f>X30</f>
-        <v>#VALUE!</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="L7" s="194"/>
       <c r="M7" s="206">
-        <v>0.1</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="N7" s="194"/>
-      <c r="O7" s="247" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" s="204" t="e">
+      <c r="O7" s="247">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="P7" s="204">
         <f>_xll.qlSimpleQuoteSetValue(D7,O7/100,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="162"/>
       <c r="R7" s="13"/>
@@ -4217,7 +4220,7 @@
       </c>
       <c r="L8" s="194"/>
       <c r="M8" s="195">
-        <v>7.0709999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N8" s="194"/>
       <c r="O8" s="254">
@@ -4937,7 +4940,7 @@
       </c>
       <c r="L22" s="194"/>
       <c r="M22" s="195">
-        <v>0.33571000000000001</v>
+        <v>0.33356999999999998</v>
       </c>
       <c r="N22" s="194"/>
       <c r="O22" s="247">
@@ -5006,7 +5009,7 @@
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="115" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
@@ -5027,9 +5030,9 @@
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
     </row>
-    <row r="27" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
+      <c r="O27"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
@@ -5037,7 +5040,7 @@
       <c r="T27" s="13"/>
       <c r="U27" s="411" t="str">
         <f>_xll.RData(J5:J7,V27:W27,"RTFEED:IDN",ReutersRtMode,,V28)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="V27" s="412" t="s">
         <v>178</v>
@@ -5049,9 +5052,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
+      <c r="O28"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
@@ -5078,15 +5081,15 @@
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
-      <c r="V29" s="414" t="s">
-        <v>190</v>
-      </c>
-      <c r="W29" s="414" t="s">
-        <v>190</v>
-      </c>
-      <c r="X29" s="414" t="e">
+      <c r="V29" s="414">
+        <v>-0.03</v>
+      </c>
+      <c r="W29" s="414">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X29" s="414">
         <f>(V29+W29)/2</f>
-        <v>#VALUE!</v>
+        <v>2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
@@ -5098,15 +5101,15 @@
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="415" t="s">
-        <v>190</v>
-      </c>
-      <c r="W30" s="415" t="s">
-        <v>190</v>
-      </c>
-      <c r="X30" s="415" t="e">
+      <c r="V30" s="415">
+        <v>-0.03</v>
+      </c>
+      <c r="W30" s="415">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X30" s="415">
         <f>(V30+W30)/2</f>
-        <v>#VALUE!</v>
+        <v>2.0000000000000004E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5248,7 +5251,7 @@
       <c r="W3" s="108"/>
       <c r="X3" s="223">
         <f>_xll.ohTrigger(X5:X36)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y3" s="162"/>
       <c r="Z3" s="13"/>
@@ -5278,7 +5281,7 @@
       <c r="M4" s="142"/>
       <c r="N4" s="189" t="str">
         <f>_xll.RData(N5:N36,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="O4" s="243" t="s">
         <v>178</v>
@@ -5641,10 +5644,10 @@
         <v>JPY5X8F=ICAP</v>
       </c>
       <c r="O9" s="236">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="P9" s="236">
-        <v>0.14499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q9" s="235">
         <v>0</v>
@@ -5654,15 +5657,15 @@
       </c>
       <c r="S9" s="196">
         <f>_xll.qlMidSafe($O9,$P9)</f>
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="T9" s="194"/>
       <c r="U9" s="234">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="V9" s="194"/>
       <c r="W9" s="254">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="X9" s="191">
         <f>_xll.qlSimpleQuoteSetValue(E9,W9/100,Trigger)</f>
@@ -5713,10 +5716,10 @@
         <v>JPY6X9F=ICAP</v>
       </c>
       <c r="O10" s="236">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="P10" s="236">
-        <v>0.14499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q10" s="235">
         <v>0</v>
@@ -5726,15 +5729,15 @@
       </c>
       <c r="S10" s="196">
         <f>_xll.qlMidSafe($O10,$P10)</f>
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="T10" s="194"/>
       <c r="U10" s="234">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="V10" s="194"/>
       <c r="W10" s="254">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="X10" s="191">
         <f>_xll.qlSimpleQuoteSetValue(E10,W10/100,Trigger)</f>
@@ -5785,10 +5788,10 @@
         <v>JPY9X12F=ICAP</v>
       </c>
       <c r="O11" s="236">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="P11" s="236">
-        <v>0.14499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q11" s="235">
         <v>0</v>
@@ -5798,15 +5801,15 @@
       </c>
       <c r="S11" s="196">
         <f>_xll.qlMidSafe($O11,$P11)</f>
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="T11" s="194"/>
       <c r="U11" s="234">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="V11" s="194"/>
       <c r="W11" s="254">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="X11" s="191">
         <f>_xll.qlSimpleQuoteSetValue(E11,W11/100,Trigger)</f>
@@ -5857,10 +5860,10 @@
         <v>JPY12X15F=ICAP</v>
       </c>
       <c r="O12" s="236">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="P12" s="236">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="Q12" s="235">
         <v>0</v>
@@ -5870,15 +5873,15 @@
       </c>
       <c r="S12" s="196">
         <f>_xll.qlMidSafe($O12,$P12)</f>
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="T12" s="194"/>
       <c r="U12" s="234">
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="V12" s="194"/>
       <c r="W12" s="254">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="X12" s="191">
         <f>_xll.qlSimpleQuoteSetValue(E12,W12/100,Trigger)</f>
@@ -5929,10 +5932,10 @@
         <v>JPY15X18F=ICAP</v>
       </c>
       <c r="O13" s="236">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="P13" s="236">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="Q13" s="235">
         <v>0</v>
@@ -5942,15 +5945,15 @@
       </c>
       <c r="S13" s="196">
         <f>_xll.qlMidSafe($O13,$P13)</f>
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="T13" s="194"/>
       <c r="U13" s="234">
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="V13" s="194"/>
       <c r="W13" s="254">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="X13" s="191">
         <f>_xll.qlSimpleQuoteSetValue(E13,W13/100,Trigger)</f>
@@ -6018,7 +6021,7 @@
       </c>
       <c r="T14" s="194"/>
       <c r="U14" s="234">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="V14" s="194"/>
       <c r="W14" s="254">
@@ -6073,10 +6076,10 @@
         <v>JPY21X24F=ICAP</v>
       </c>
       <c r="O15" s="236">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="P15" s="236">
-        <v>0.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="Q15" s="235">
         <v>0</v>
@@ -6086,7 +6089,7 @@
       </c>
       <c r="S15" s="196">
         <f>_xll.qlMidSafe($O15,$P15)</f>
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="T15" s="194"/>
       <c r="U15" s="234">
@@ -6094,7 +6097,7 @@
       </c>
       <c r="V15" s="194"/>
       <c r="W15" s="254">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="X15" s="191">
         <f>_xll.qlSimpleQuoteSetValue(E15,W15/100,Trigger)</f>
@@ -6292,10 +6295,10 @@
         <v>JPY3X9F=ICAP</v>
       </c>
       <c r="O18" s="236">
-        <v>0.17</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="P18" s="236">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="Q18" s="235">
         <v>0</v>
@@ -6305,15 +6308,15 @@
       </c>
       <c r="S18" s="196">
         <f>_xll.qlMidSafe($O18,$P18)</f>
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="T18" s="194"/>
       <c r="U18" s="234">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="V18" s="194"/>
       <c r="W18" s="254">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="X18" s="191">
         <f>_xll.qlSimpleQuoteSetValue(E18,W18/100,Trigger)</f>
@@ -6365,10 +6368,10 @@
         <v>JPY4X10F=ICAP</v>
       </c>
       <c r="O19" s="236">
-        <v>0.17</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="P19" s="236">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="Q19" s="235">
         <v>0</v>
@@ -6378,15 +6381,15 @@
       </c>
       <c r="S19" s="196">
         <f>_xll.qlMidSafe($O19,$P19)</f>
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="T19" s="194"/>
       <c r="U19" s="234">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="V19" s="194"/>
       <c r="W19" s="254">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="X19" s="191">
         <f>_xll.qlSimpleQuoteSetValue(E19,W19/100,Trigger)</f>
@@ -6455,7 +6458,7 @@
       </c>
       <c r="T20" s="194"/>
       <c r="U20" s="234">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="V20" s="194"/>
       <c r="W20" s="254">
@@ -6528,7 +6531,7 @@
       </c>
       <c r="T21" s="194"/>
       <c r="U21" s="234">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="V21" s="194"/>
       <c r="W21" s="254">
@@ -6657,10 +6660,10 @@
         <v>JPY12X18F=ICAP</v>
       </c>
       <c r="O23" s="236">
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="P23" s="236">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="Q23" s="235">
         <v>0</v>
@@ -6670,15 +6673,15 @@
       </c>
       <c r="S23" s="196">
         <f>_xll.qlMidSafe($O23,$P23)</f>
-        <v>0.17499999999999999</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="T23" s="194"/>
       <c r="U23" s="234">
-        <v>0.18</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="V23" s="194"/>
       <c r="W23" s="254">
-        <v>0.17499999999999999</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="X23" s="191">
         <f>_xll.qlSimpleQuoteSetValue(E23,W23/100,Trigger)</f>
@@ -6748,7 +6751,7 @@
       </c>
       <c r="T24" s="194"/>
       <c r="U24" s="230">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="V24" s="194"/>
       <c r="W24" s="247">
@@ -7855,7 +7858,7 @@
       <c r="Y4" s="108"/>
       <c r="Z4" s="223">
         <f>_xll.ohTrigger(Z6:Z47)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA4" s="268"/>
       <c r="AB4" s="13"/>
@@ -7869,9 +7872,9 @@
       </c>
       <c r="AM4" s="187" t="str">
         <f>Tibor!E9</f>
-        <v>JpyTibor3M#0004</v>
-      </c>
-      <c r="AN4" s="512" t="s">
+        <v>JpyTibor3M#0001</v>
+      </c>
+      <c r="AN4" s="507" t="s">
         <v>295</v>
       </c>
       <c r="AO4" s="22"/>
@@ -7915,7 +7918,7 @@
       </c>
       <c r="O5" s="275" t="str">
         <f>_xll.RData(O6:O47,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Updated at 15:52:05</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="P5" s="272" t="s">
         <v>216</v>
@@ -7998,7 +8001,7 @@
       </c>
       <c r="F6" s="120" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM4_Quote#0000</v>
+        <v>JPYFUT3MTIBORM4_Quote#0001</v>
       </c>
       <c r="G6" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -8044,8 +8047,8 @@
         <v>99.792500000000004</v>
       </c>
       <c r="V6" s="194"/>
-      <c r="W6" s="262" t="e">
-        <v>#NUM!</v>
+      <c r="W6" s="262">
+        <v>99.792500000000004</v>
       </c>
       <c r="X6" s="194"/>
       <c r="Y6" s="261">
@@ -8081,7 +8084,7 @@
       </c>
       <c r="AM6" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL6,IborIndex,AK6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(Z6),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM4ConvAdj_Quote#0002</v>
+        <v>JPYFUT3MTIBORM4ConvAdj_Quote#0006</v>
       </c>
       <c r="AN6" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM6)</f>
@@ -8106,7 +8109,7 @@
       </c>
       <c r="F7" s="113" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORN4_Quote#0000</v>
+        <v>JPYFUT3MTIBORN4_Quote#0001</v>
       </c>
       <c r="G7" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -8184,7 +8187,7 @@
       </c>
       <c r="AM7" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL7,IborIndex,AK7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORN4ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORN4ConvAdj_Quote#0005</v>
       </c>
       <c r="AN7" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM7)</f>
@@ -8209,7 +8212,7 @@
       </c>
       <c r="F8" s="113" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORQ4_Quote#0000</v>
+        <v>JPYFUT3MTIBORQ4_Quote#0001</v>
       </c>
       <c r="G8" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -8287,7 +8290,7 @@
       </c>
       <c r="AM8" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL8,IborIndex,AK8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORQ4ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORQ4ConvAdj_Quote#0005</v>
       </c>
       <c r="AN8" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM8)</f>
@@ -8312,7 +8315,7 @@
       </c>
       <c r="F9" s="113" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU4_Quote#0000</v>
+        <v>JPYFUT3MTIBORU4_Quote#0001</v>
       </c>
       <c r="G9" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -8355,8 +8358,8 @@
         <v>99.802500000000009</v>
       </c>
       <c r="V9" s="194"/>
-      <c r="W9" s="260" t="e">
-        <v>#NUM!</v>
+      <c r="W9" s="260">
+        <v>99.802500000000009</v>
       </c>
       <c r="X9" s="194"/>
       <c r="Y9" s="254">
@@ -8392,7 +8395,7 @@
       </c>
       <c r="AM9" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL9,IborIndex,AK9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU4ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORU4ConvAdj_Quote#0005</v>
       </c>
       <c r="AN9" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM9)</f>
@@ -8417,7 +8420,7 @@
       </c>
       <c r="F10" s="113" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORV4_Quote#0000</v>
+        <v>JPYFUT3MTIBORV4_Quote#0001</v>
       </c>
       <c r="G10" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -8496,7 +8499,7 @@
       </c>
       <c r="AM10" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL10,IborIndex,AK10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORV4ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORV4ConvAdj_Quote#0005</v>
       </c>
       <c r="AN10" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM10)</f>
@@ -8521,7 +8524,7 @@
       </c>
       <c r="F11" s="113" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORX4_Quote#0000</v>
+        <v>JPYFUT3MTIBORX4_Quote#0001</v>
       </c>
       <c r="G11" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -8597,7 +8600,7 @@
       </c>
       <c r="AM11" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL11,IborIndex,AK11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORX4ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORX4ConvAdj_Quote#0005</v>
       </c>
       <c r="AN11" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM11)</f>
@@ -8622,7 +8625,7 @@
       </c>
       <c r="F12" s="113" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ4_Quote#0000</v>
+        <v>JPYFUT3MTIBORZ4_Quote#0001</v>
       </c>
       <c r="G12" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -8665,8 +8668,8 @@
         <v>99.807500000000005</v>
       </c>
       <c r="V12" s="194"/>
-      <c r="W12" s="255" t="e">
-        <v>#NUM!</v>
+      <c r="W12" s="255">
+        <v>99.807500000000005</v>
       </c>
       <c r="X12" s="194"/>
       <c r="Y12" s="254">
@@ -8698,7 +8701,7 @@
       </c>
       <c r="AM12" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL12,IborIndex,AK12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ4ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ4ConvAdj_Quote#0005</v>
       </c>
       <c r="AN12" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM12)</f>
@@ -8723,7 +8726,7 @@
       </c>
       <c r="F13" s="113" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORF5_Quote#0000</v>
+        <v>JPYFUT3MTIBORF5_Quote#0001</v>
       </c>
       <c r="G13" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -8799,7 +8802,7 @@
       </c>
       <c r="AM13" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL13,IborIndex,AK13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORF5ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORF5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN13" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM13)</f>
@@ -8824,7 +8827,7 @@
       </c>
       <c r="F14" s="113" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORG5_Quote#0000</v>
+        <v>JPYFUT3MTIBORG5_Quote#0001</v>
       </c>
       <c r="G14" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -8900,7 +8903,7 @@
       </c>
       <c r="AM14" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL14,IborIndex,AK14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORG5ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORG5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN14" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM14)</f>
@@ -8925,7 +8928,7 @@
       </c>
       <c r="F15" s="113" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH5_Quote#0000</v>
+        <v>JPYFUT3MTIBORH5_Quote#0001</v>
       </c>
       <c r="G15" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -8968,8 +8971,8 @@
         <v>99.807500000000005</v>
       </c>
       <c r="V15" s="194"/>
-      <c r="W15" s="255" t="e">
-        <v>#NUM!</v>
+      <c r="W15" s="255">
+        <v>99.807500000000005</v>
       </c>
       <c r="X15" s="194"/>
       <c r="Y15" s="254">
@@ -9001,7 +9004,7 @@
       </c>
       <c r="AM15" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL15,IborIndex,AK15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH5ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORH5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN15" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM15)</f>
@@ -9026,7 +9029,7 @@
       </c>
       <c r="F16" s="113" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORJ5_Quote#0000</v>
+        <v>JPYFUT3MTIBORJ5_Quote#0001</v>
       </c>
       <c r="G16" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -9102,7 +9105,7 @@
       </c>
       <c r="AM16" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL16,IborIndex,AK16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORJ5ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORJ5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN16" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM16)</f>
@@ -9127,7 +9130,7 @@
       </c>
       <c r="F17" s="113" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORK5_Quote#0000</v>
+        <v>JPYFUT3MTIBORK5_Quote#0001</v>
       </c>
       <c r="G17" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -9203,7 +9206,7 @@
       </c>
       <c r="AM17" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL17,IborIndex,AK17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORK5ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORK5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN17" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM17)</f>
@@ -9228,7 +9231,7 @@
       </c>
       <c r="F18" s="113" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM5_Quote#0000</v>
+        <v>JPYFUT3MTIBORM5_Quote#0001</v>
       </c>
       <c r="G18" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -9258,25 +9261,25 @@
         <v>99.805000000000007</v>
       </c>
       <c r="R18" s="192">
-        <v>99.814999999999998</v>
+        <v>99.81</v>
       </c>
       <c r="S18" s="192">
-        <v>99.805000000000007</v>
+        <v>99.81</v>
       </c>
       <c r="T18" s="192">
         <v>99.81</v>
       </c>
       <c r="U18" s="196">
         <f>_xll.qlMidSafe($Q18,$R18)</f>
-        <v>99.81</v>
+        <v>99.807500000000005</v>
       </c>
       <c r="V18" s="194"/>
-      <c r="W18" s="255" t="e">
-        <v>#NUM!</v>
+      <c r="W18" s="255">
+        <v>99.807500000000005</v>
       </c>
       <c r="X18" s="194"/>
       <c r="Y18" s="254">
-        <v>99.81</v>
+        <v>99.807500000000005</v>
       </c>
       <c r="Z18" s="196">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18,Trigger)</f>
@@ -9304,7 +9307,7 @@
       </c>
       <c r="AM18" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL18,IborIndex,AK18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM5ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORM5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN18" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM18)</f>
@@ -9329,7 +9332,7 @@
       </c>
       <c r="F19" s="113" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU5_Quote#0000</v>
+        <v>JPYFUT3MTIBORU5_Quote#0001</v>
       </c>
       <c r="G19" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -9372,8 +9375,8 @@
         <v>99.807500000000005</v>
       </c>
       <c r="V19" s="194"/>
-      <c r="W19" s="255" t="e">
-        <v>#NUM!</v>
+      <c r="W19" s="255">
+        <v>99.807500000000005</v>
       </c>
       <c r="X19" s="194"/>
       <c r="Y19" s="254">
@@ -9405,7 +9408,7 @@
       </c>
       <c r="AM19" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL19,IborIndex,AK19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU5ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORU5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN19" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM19)</f>
@@ -9430,7 +9433,7 @@
       </c>
       <c r="F20" s="113" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ5_Quote#0000</v>
+        <v>JPYFUT3MTIBORZ5_Quote#0001</v>
       </c>
       <c r="G20" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -9463,18 +9466,18 @@
         <v>99.805000000000007</v>
       </c>
       <c r="S20" s="192">
+        <v>0</v>
+      </c>
+      <c r="T20" s="192">
         <v>99.8</v>
-      </c>
-      <c r="T20" s="192">
-        <v>99.805000000000007</v>
       </c>
       <c r="U20" s="196">
         <f>_xll.qlMidSafe($Q20,$R20)</f>
         <v>99.802500000000009</v>
       </c>
       <c r="V20" s="194"/>
-      <c r="W20" s="255" t="e">
-        <v>#NUM!</v>
+      <c r="W20" s="255">
+        <v>99.802500000000009</v>
       </c>
       <c r="X20" s="194"/>
       <c r="Y20" s="254">
@@ -9506,7 +9509,7 @@
       </c>
       <c r="AM20" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL20,IborIndex,AK20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ5ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN20" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM20)</f>
@@ -9531,7 +9534,7 @@
       </c>
       <c r="F21" s="113" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH6_Quote#0000</v>
+        <v>JPYFUT3MTIBORH6_Quote#0001</v>
       </c>
       <c r="G21" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -9558,7 +9561,7 @@
         <v>42443</v>
       </c>
       <c r="Q21" s="192">
-        <v>99.795000000000002</v>
+        <v>99.79</v>
       </c>
       <c r="R21" s="192">
         <v>99.8</v>
@@ -9571,15 +9574,15 @@
       </c>
       <c r="U21" s="196">
         <f>_xll.qlMidSafe($Q21,$R21)</f>
-        <v>99.797499999999999</v>
+        <v>99.795000000000002</v>
       </c>
       <c r="V21" s="194"/>
-      <c r="W21" s="255" t="e">
-        <v>#NUM!</v>
+      <c r="W21" s="255">
+        <v>99.795000000000002</v>
       </c>
       <c r="X21" s="194"/>
       <c r="Y21" s="254">
-        <v>99.797499999999999</v>
+        <v>99.795000000000002</v>
       </c>
       <c r="Z21" s="196">
         <f>_xll.qlSimpleQuoteSetValue(F21,Y21,Trigger)</f>
@@ -9607,7 +9610,7 @@
       </c>
       <c r="AM21" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL21,IborIndex,AK21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH6ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORH6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN21" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM21)</f>
@@ -9632,7 +9635,7 @@
       </c>
       <c r="F22" s="113" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM6_Quote#0000</v>
+        <v>JPYFUT3MTIBORM6_Quote#0001</v>
       </c>
       <c r="G22" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -9675,8 +9678,8 @@
         <v>99.78</v>
       </c>
       <c r="V22" s="194"/>
-      <c r="W22" s="255" t="e">
-        <v>#NUM!</v>
+      <c r="W22" s="255">
+        <v>99.78</v>
       </c>
       <c r="X22" s="194"/>
       <c r="Y22" s="254">
@@ -9708,7 +9711,7 @@
       </c>
       <c r="AM22" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL22,IborIndex,AK22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM6ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORM6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN22" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM22)</f>
@@ -9733,7 +9736,7 @@
       </c>
       <c r="F23" s="113" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU6_Quote#0000</v>
+        <v>JPYFUT3MTIBORU6_Quote#0001</v>
       </c>
       <c r="G23" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -9760,28 +9763,28 @@
         <v>42629</v>
       </c>
       <c r="Q23" s="192">
-        <v>99.76</v>
+        <v>99.745000000000005</v>
       </c>
       <c r="R23" s="192">
         <v>99.765000000000001</v>
       </c>
       <c r="S23" s="192">
+        <v>99.76</v>
+      </c>
+      <c r="T23" s="192">
         <v>99.765000000000001</v>
-      </c>
-      <c r="T23" s="192">
-        <v>99.76</v>
       </c>
       <c r="U23" s="196">
         <f>_xll.qlMidSafe($Q23,$R23)</f>
-        <v>99.762500000000003</v>
+        <v>99.754999999999995</v>
       </c>
       <c r="V23" s="194"/>
-      <c r="W23" s="255" t="e">
-        <v>#NUM!</v>
+      <c r="W23" s="255">
+        <v>99.754999999999995</v>
       </c>
       <c r="X23" s="194"/>
       <c r="Y23" s="254">
-        <v>99.762500000000003</v>
+        <v>99.754999999999995</v>
       </c>
       <c r="Z23" s="196">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23,Trigger)</f>
@@ -9809,7 +9812,7 @@
       </c>
       <c r="AM23" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL23,IborIndex,AK23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU6ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORU6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN23" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM23)</f>
@@ -9834,7 +9837,7 @@
       </c>
       <c r="F24" s="113" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ6_Quote#0000</v>
+        <v>JPYFUT3MTIBORZ6_Quote#0001</v>
       </c>
       <c r="G24" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -9861,7 +9864,7 @@
         <v>42723</v>
       </c>
       <c r="Q24" s="192">
-        <v>0</v>
+        <v>99.704999999999998</v>
       </c>
       <c r="R24" s="192">
         <v>99.76</v>
@@ -9870,23 +9873,23 @@
         <v>0</v>
       </c>
       <c r="T24" s="192">
-        <v>99.75</v>
-      </c>
-      <c r="U24" s="196" t="e">
+        <v>99.754999999999995</v>
+      </c>
+      <c r="U24" s="196">
         <f>_xll.qlMidSafe($Q24,$R24)</f>
-        <v>#NUM!</v>
+        <v>99.732500000000002</v>
       </c>
       <c r="V24" s="194"/>
-      <c r="W24" s="255" t="e">
-        <v>#NUM!</v>
+      <c r="W24" s="255">
+        <v>99.732500000000002</v>
       </c>
       <c r="X24" s="194"/>
-      <c r="Y24" s="254" t="e">
-        <v>#NUM!</v>
+      <c r="Y24" s="254">
+        <v>99.732500000000002</v>
       </c>
       <c r="Z24" s="196" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F24,Y24,Trigger)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AA24" s="22"/>
       <c r="AB24" s="13"/>
@@ -9910,7 +9913,7 @@
       </c>
       <c r="AM24" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL24,IborIndex,AK24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ6ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN24" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM24)</f>
@@ -9935,7 +9938,7 @@
       </c>
       <c r="F25" s="113" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH7_Quote#0000</v>
+        <v>JPYFUT3MTIBORH7_Quote#0001</v>
       </c>
       <c r="G25" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -9965,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="R25" s="192">
-        <v>0</v>
+        <v>99.76</v>
       </c>
       <c r="S25" s="192">
         <v>0</v>
       </c>
       <c r="T25" s="192">
-        <v>99.7</v>
+        <v>99.704999999999998</v>
       </c>
       <c r="U25" s="196" t="e">
         <f>_xll.qlMidSafe($Q25,$R25)</f>
@@ -10011,7 +10014,7 @@
       </c>
       <c r="AM25" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL25,IborIndex,AK25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH7ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORH7ConvAdj_Quote#0005</v>
       </c>
       <c r="AN25" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM25)</f>
@@ -10036,7 +10039,7 @@
       </c>
       <c r="F26" s="113" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM7_Quote#0000</v>
+        <v>JPYFUT3MTIBORM7_Quote#0001</v>
       </c>
       <c r="G26" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -10072,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="192">
-        <v>99.625</v>
+        <v>99.63</v>
       </c>
       <c r="U26" s="196" t="e">
         <f>_xll.qlMidSafe($Q26,$R26)</f>
@@ -10112,7 +10115,7 @@
       </c>
       <c r="AM26" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL26,IborIndex,AK26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM7ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORM7ConvAdj_Quote#0005</v>
       </c>
       <c r="AN26" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM26)</f>
@@ -10137,7 +10140,7 @@
       </c>
       <c r="F27" s="113" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU7_Quote#0000</v>
+        <v>JPYFUT3MTIBORU7_Quote#0001</v>
       </c>
       <c r="G27" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -10173,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="192">
-        <v>99.55</v>
+        <v>99.555000000000007</v>
       </c>
       <c r="U27" s="196" t="e">
         <f>_xll.qlMidSafe($Q27,$R27)</f>
@@ -10213,7 +10216,7 @@
       </c>
       <c r="AM27" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL27,IborIndex,AK27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU7ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORU7ConvAdj_Quote#0005</v>
       </c>
       <c r="AN27" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM27)</f>
@@ -10238,7 +10241,7 @@
       </c>
       <c r="F28" s="113" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ7_Quote#0000</v>
+        <v>JPYFUT3MTIBORZ7_Quote#0001</v>
       </c>
       <c r="G28" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -10274,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="192">
-        <v>99.474999999999994</v>
+        <v>99.48</v>
       </c>
       <c r="U28" s="196" t="e">
         <f>_xll.qlMidSafe($Q28,$R28)</f>
@@ -10314,7 +10317,7 @@
       </c>
       <c r="AM28" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL28,IborIndex,AK28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ7ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ7ConvAdj_Quote#0005</v>
       </c>
       <c r="AN28" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM28)</f>
@@ -10339,7 +10342,7 @@
       </c>
       <c r="F29" s="113" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH8_Quote#0000</v>
+        <v>JPYFUT3MTIBORH8_Quote#0001</v>
       </c>
       <c r="G29" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -10375,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="192">
-        <v>99.4</v>
+        <v>99.405000000000001</v>
       </c>
       <c r="U29" s="196" t="e">
         <f>_xll.qlMidSafe($Q29,$R29)</f>
@@ -10415,7 +10418,7 @@
       </c>
       <c r="AM29" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL29,IborIndex,AK29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH8ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORH8ConvAdj_Quote#0005</v>
       </c>
       <c r="AN29" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM29)</f>
@@ -10440,7 +10443,7 @@
       </c>
       <c r="F30" s="113" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM8_Quote#0000</v>
+        <v>JPYFUT3MTIBORM8_Quote#0001</v>
       </c>
       <c r="G30" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -10476,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="192">
-        <v>99.325000000000003</v>
+        <v>99.33</v>
       </c>
       <c r="U30" s="196" t="e">
         <f>_xll.qlMidSafe($Q30,$R30)</f>
@@ -10516,7 +10519,7 @@
       </c>
       <c r="AM30" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL30,IborIndex,AK30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM8ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORM8ConvAdj_Quote#0005</v>
       </c>
       <c r="AN30" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM30)</f>
@@ -10541,7 +10544,7 @@
       </c>
       <c r="F31" s="113" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU8_Quote#0000</v>
+        <v>JPYFUT3MTIBORU8_Quote#0001</v>
       </c>
       <c r="G31" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -10577,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="192">
-        <v>99.25</v>
+        <v>99.254999999999995</v>
       </c>
       <c r="U31" s="196" t="e">
         <f>_xll.qlMidSafe($Q31,$R31)</f>
@@ -10617,7 +10620,7 @@
       </c>
       <c r="AM31" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL31,IborIndex,AK31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU8ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORU8ConvAdj_Quote#0005</v>
       </c>
       <c r="AN31" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM31)</f>
@@ -10642,7 +10645,7 @@
       </c>
       <c r="F32" s="113" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ8_Quote#0000</v>
+        <v>JPYFUT3MTIBORZ8_Quote#0001</v>
       </c>
       <c r="G32" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -10678,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="192">
-        <v>99.174999999999997</v>
+        <v>99.18</v>
       </c>
       <c r="U32" s="196" t="e">
         <f>_xll.qlMidSafe($Q32,$R32)</f>
@@ -10718,7 +10721,7 @@
       </c>
       <c r="AM32" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL32,IborIndex,AK32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ8ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ8ConvAdj_Quote#0005</v>
       </c>
       <c r="AN32" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM32)</f>
@@ -10743,7 +10746,7 @@
       </c>
       <c r="F33" s="113" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH9_Quote#0000</v>
+        <v>JPYFUT3MTIBORH9_Quote#0001</v>
       </c>
       <c r="G33" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -10779,7 +10782,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="192">
-        <v>99.1</v>
+        <v>99.105000000000004</v>
       </c>
       <c r="U33" s="196" t="e">
         <f>_xll.qlMidSafe($Q33,$R33)</f>
@@ -10819,7 +10822,7 @@
       </c>
       <c r="AM33" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL33,IborIndex,AK33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH9ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORH9ConvAdj_Quote#0005</v>
       </c>
       <c r="AN33" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM33)</f>
@@ -10844,7 +10847,7 @@
       </c>
       <c r="F34" s="113" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM9_Quote#0000</v>
+        <v>JPYFUT3MTIBORM9_Quote#0001</v>
       </c>
       <c r="G34" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -10920,7 +10923,7 @@
       </c>
       <c r="AM34" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL34,IborIndex,AK34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM9ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORM9ConvAdj_Quote#0005</v>
       </c>
       <c r="AN34" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM34)</f>
@@ -10945,7 +10948,7 @@
       </c>
       <c r="F35" s="113" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU9_Quote#0000</v>
+        <v>JPYFUT3MTIBORU9_Quote#0001</v>
       </c>
       <c r="G35" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -11021,7 +11024,7 @@
       </c>
       <c r="AM35" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL35,IborIndex,AK35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU9ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORU9ConvAdj_Quote#0005</v>
       </c>
       <c r="AN35" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM35)</f>
@@ -11046,7 +11049,7 @@
       </c>
       <c r="F36" s="113" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ9_Quote#0000</v>
+        <v>JPYFUT3MTIBORZ9_Quote#0001</v>
       </c>
       <c r="G36" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -11122,7 +11125,7 @@
       </c>
       <c r="AM36" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL36,IborIndex,AK36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ9ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ9ConvAdj_Quote#0005</v>
       </c>
       <c r="AN36" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM36)</f>
@@ -11147,7 +11150,7 @@
       </c>
       <c r="F37" s="113" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH0_Quote#0000</v>
+        <v>JPYFUT3MTIBORH0_Quote#0001</v>
       </c>
       <c r="G37" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -11223,7 +11226,7 @@
       </c>
       <c r="AM37" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL37,IborIndex,AK37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH0ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORH0ConvAdj_Quote#0005</v>
       </c>
       <c r="AN37" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM37)</f>
@@ -11248,7 +11251,7 @@
       </c>
       <c r="F38" s="113" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM0_Quote#0000</v>
+        <v>JPYFUT3MTIBORM0_Quote#0001</v>
       </c>
       <c r="G38" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -11324,7 +11327,7 @@
       </c>
       <c r="AM38" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL38,IborIndex,AK38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM0ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORM0ConvAdj_Quote#0005</v>
       </c>
       <c r="AN38" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM38)</f>
@@ -11349,7 +11352,7 @@
       </c>
       <c r="F39" s="113" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU0_Quote#0000</v>
+        <v>JPYFUT3MTIBORU0_Quote#0001</v>
       </c>
       <c r="G39" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -11425,7 +11428,7 @@
       </c>
       <c r="AM39" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL39,IborIndex,AK39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU0ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORU0ConvAdj_Quote#0005</v>
       </c>
       <c r="AN39" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM39)</f>
@@ -11450,7 +11453,7 @@
       </c>
       <c r="F40" s="113" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ0_Quote#0000</v>
+        <v>JPYFUT3MTIBORZ0_Quote#0001</v>
       </c>
       <c r="G40" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -11526,7 +11529,7 @@
       </c>
       <c r="AM40" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL40,IborIndex,AK40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ0ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ0ConvAdj_Quote#0005</v>
       </c>
       <c r="AN40" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM40)</f>
@@ -11551,7 +11554,7 @@
       </c>
       <c r="F41" s="113" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH1_Quote#0000</v>
+        <v>JPYFUT3MTIBORH1_Quote#0001</v>
       </c>
       <c r="G41" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -11627,7 +11630,7 @@
       </c>
       <c r="AM41" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL41,IborIndex,AK41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH1ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORH1ConvAdj_Quote#0005</v>
       </c>
       <c r="AN41" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM41)</f>
@@ -11652,7 +11655,7 @@
       </c>
       <c r="F42" s="113" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM1_Quote#0000</v>
+        <v>JPYFUT3MTIBORM1_Quote#0001</v>
       </c>
       <c r="G42" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -11728,7 +11731,7 @@
       </c>
       <c r="AM42" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL42,IborIndex,AK42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM1ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORM1ConvAdj_Quote#0005</v>
       </c>
       <c r="AN42" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM42)</f>
@@ -11753,7 +11756,7 @@
       </c>
       <c r="F43" s="113" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU1_Quote#0000</v>
+        <v>JPYFUT3MTIBORU1_Quote#0001</v>
       </c>
       <c r="G43" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -11829,7 +11832,7 @@
       </c>
       <c r="AM43" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL43,IborIndex,AK43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU1ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORU1ConvAdj_Quote#0005</v>
       </c>
       <c r="AN43" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM43)</f>
@@ -11854,7 +11857,7 @@
       </c>
       <c r="F44" s="113" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ1_Quote#0000</v>
+        <v>JPYFUT3MTIBORZ1_Quote#0001</v>
       </c>
       <c r="G44" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -11930,7 +11933,7 @@
       </c>
       <c r="AM44" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL44,IborIndex,AK44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORZ1ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORZ1ConvAdj_Quote#0005</v>
       </c>
       <c r="AN44" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM44)</f>
@@ -11955,7 +11958,7 @@
       </c>
       <c r="F45" s="113" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH2_Quote#0000</v>
+        <v>JPYFUT3MTIBORH2_Quote#0001</v>
       </c>
       <c r="G45" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -12031,7 +12034,7 @@
       </c>
       <c r="AM45" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL45,IborIndex,AK45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORH2ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORH2ConvAdj_Quote#0005</v>
       </c>
       <c r="AN45" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM45)</f>
@@ -12056,7 +12059,7 @@
       </c>
       <c r="F46" s="113" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM2_Quote#0000</v>
+        <v>JPYFUT3MTIBORM2_Quote#0001</v>
       </c>
       <c r="G46" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -12132,7 +12135,7 @@
       </c>
       <c r="AM46" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL46,IborIndex,AK46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORM2ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORM2ConvAdj_Quote#0005</v>
       </c>
       <c r="AN46" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM46)</f>
@@ -12157,7 +12160,7 @@
       </c>
       <c r="F47" s="113" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU2_Quote#0000</v>
+        <v>JPYFUT3MTIBORU2_Quote#0001</v>
       </c>
       <c r="G47" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -12233,7 +12236,7 @@
       </c>
       <c r="AM47" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL47,IborIndex,AK47,F47,Volatility,MeanReversion,Permanent,AND(ISERROR(Z47),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>JPYFUT3MTIBORU2ConvAdj_Quote#0001</v>
+        <v>JPYFUT3MTIBORU2ConvAdj_Quote#0005</v>
       </c>
       <c r="AN47" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM47)</f>
@@ -12284,10 +12287,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z6:Z47">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12464,7 +12467,7 @@
       <c r="Y4" s="108"/>
       <c r="Z4" s="223">
         <f>_xll.ohTrigger(Z6:Z47)</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AA4" s="268"/>
       <c r="AB4" s="13"/>
@@ -12524,7 +12527,7 @@
       </c>
       <c r="O5" s="275" t="str">
         <f>_xll.RData(O6:O47,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Updated at 15:52:05</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="P5" s="272" t="s">
         <v>216</v>
@@ -12692,7 +12695,7 @@
       </c>
       <c r="AM6" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL6,IborIndex,AK6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(Z6),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM4ConvAdj_Quote#0023</v>
+        <v>JPYFUT3MM4ConvAdj_Quote#0005</v>
       </c>
       <c r="AN6" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM6)</f>
@@ -12797,7 +12800,7 @@
       </c>
       <c r="AM7" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL7,IborIndex,AK7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>JPYFUT3MN4ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MN4ConvAdj_Quote#0005</v>
       </c>
       <c r="AN7" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM7)</f>
@@ -12902,7 +12905,7 @@
       </c>
       <c r="AM8" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL8,IborIndex,AK8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>JPYFUT3MQ4ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MQ4ConvAdj_Quote#0005</v>
       </c>
       <c r="AN8" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM8)</f>
@@ -13007,7 +13010,7 @@
       </c>
       <c r="AM9" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL9,IborIndex,AK9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU4ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MU4ConvAdj_Quote#0005</v>
       </c>
       <c r="AN9" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM9)</f>
@@ -13113,7 +13116,7 @@
       </c>
       <c r="AM10" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL10,IborIndex,AK10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>JPYFUT3MV4ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MV4ConvAdj_Quote#0005</v>
       </c>
       <c r="AN10" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM10)</f>
@@ -13214,7 +13217,7 @@
       </c>
       <c r="AM11" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL11,IborIndex,AK11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>JPYFUT3MX4ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MX4ConvAdj_Quote#0005</v>
       </c>
       <c r="AN11" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM11)</f>
@@ -13315,7 +13318,7 @@
       </c>
       <c r="AM12" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL12,IborIndex,AK12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ4ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MZ4ConvAdj_Quote#0005</v>
       </c>
       <c r="AN12" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM12)</f>
@@ -13416,7 +13419,7 @@
       </c>
       <c r="AM13" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL13,IborIndex,AK13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>JPYFUT3MF5ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MF5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN13" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM13)</f>
@@ -13517,7 +13520,7 @@
       </c>
       <c r="AM14" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL14,IborIndex,AK14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>JPYFUT3MG5ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MG5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN14" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM14)</f>
@@ -13618,7 +13621,7 @@
       </c>
       <c r="AM15" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL15,IborIndex,AK15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH5ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MH5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN15" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM15)</f>
@@ -13719,7 +13722,7 @@
       </c>
       <c r="AM16" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL16,IborIndex,AK16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>JPYFUT3MJ5ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MJ5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN16" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM16)</f>
@@ -13820,7 +13823,7 @@
       </c>
       <c r="AM17" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL17,IborIndex,AK17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>JPYFUT3MK5ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MK5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN17" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM17)</f>
@@ -13921,7 +13924,7 @@
       </c>
       <c r="AM18" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL18,IborIndex,AK18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM5ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MM5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN18" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM18)</f>
@@ -14022,7 +14025,7 @@
       </c>
       <c r="AM19" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL19,IborIndex,AK19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU5ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MU5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN19" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM19)</f>
@@ -14123,7 +14126,7 @@
       </c>
       <c r="AM20" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL20,IborIndex,AK20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ5ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MZ5ConvAdj_Quote#0005</v>
       </c>
       <c r="AN20" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM20)</f>
@@ -14224,7 +14227,7 @@
       </c>
       <c r="AM21" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL21,IborIndex,AK21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH6ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MH6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN21" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM21)</f>
@@ -14325,7 +14328,7 @@
       </c>
       <c r="AM22" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL22,IborIndex,AK22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM6ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MM6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN22" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM22)</f>
@@ -14426,7 +14429,7 @@
       </c>
       <c r="AM23" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL23,IborIndex,AK23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU6ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MU6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN23" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM23)</f>
@@ -14527,7 +14530,7 @@
       </c>
       <c r="AM24" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL24,IborIndex,AK24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ6ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MZ6ConvAdj_Quote#0005</v>
       </c>
       <c r="AN24" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM24)</f>
@@ -14628,7 +14631,7 @@
       </c>
       <c r="AM25" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL25,IborIndex,AK25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH7ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MH7ConvAdj_Quote#0005</v>
       </c>
       <c r="AN25" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM25)</f>
@@ -14729,7 +14732,7 @@
       </c>
       <c r="AM26" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL26,IborIndex,AK26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM7ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MM7ConvAdj_Quote#0005</v>
       </c>
       <c r="AN26" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM26)</f>
@@ -14830,7 +14833,7 @@
       </c>
       <c r="AM27" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL27,IborIndex,AK27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU7ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MU7ConvAdj_Quote#0005</v>
       </c>
       <c r="AN27" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM27)</f>
@@ -14931,7 +14934,7 @@
       </c>
       <c r="AM28" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL28,IborIndex,AK28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ7ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MZ7ConvAdj_Quote#0005</v>
       </c>
       <c r="AN28" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM28)</f>
@@ -15032,7 +15035,7 @@
       </c>
       <c r="AM29" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL29,IborIndex,AK29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH8ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MH8ConvAdj_Quote#0005</v>
       </c>
       <c r="AN29" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM29)</f>
@@ -15133,7 +15136,7 @@
       </c>
       <c r="AM30" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL30,IborIndex,AK30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM8ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MM8ConvAdj_Quote#0005</v>
       </c>
       <c r="AN30" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM30)</f>
@@ -15234,7 +15237,7 @@
       </c>
       <c r="AM31" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL31,IborIndex,AK31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU8ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MU8ConvAdj_Quote#0005</v>
       </c>
       <c r="AN31" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM31)</f>
@@ -15335,7 +15338,7 @@
       </c>
       <c r="AM32" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL32,IborIndex,AK32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ8ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MZ8ConvAdj_Quote#0005</v>
       </c>
       <c r="AN32" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM32)</f>
@@ -15436,7 +15439,7 @@
       </c>
       <c r="AM33" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL33,IborIndex,AK33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH9ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MH9ConvAdj_Quote#0005</v>
       </c>
       <c r="AN33" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM33)</f>
@@ -15537,7 +15540,7 @@
       </c>
       <c r="AM34" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL34,IborIndex,AK34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM9ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MM9ConvAdj_Quote#0005</v>
       </c>
       <c r="AN34" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM34)</f>
@@ -15638,7 +15641,7 @@
       </c>
       <c r="AM35" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL35,IborIndex,AK35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU9ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MU9ConvAdj_Quote#0005</v>
       </c>
       <c r="AN35" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM35)</f>
@@ -15739,7 +15742,7 @@
       </c>
       <c r="AM36" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL36,IborIndex,AK36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ9ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MZ9ConvAdj_Quote#0005</v>
       </c>
       <c r="AN36" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM36)</f>
@@ -15840,7 +15843,7 @@
       </c>
       <c r="AM37" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL37,IborIndex,AK37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH0ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MH0ConvAdj_Quote#0005</v>
       </c>
       <c r="AN37" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM37)</f>
@@ -15941,7 +15944,7 @@
       </c>
       <c r="AM38" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL38,IborIndex,AK38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM0ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MM0ConvAdj_Quote#0005</v>
       </c>
       <c r="AN38" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM38)</f>
@@ -16042,7 +16045,7 @@
       </c>
       <c r="AM39" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL39,IborIndex,AK39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU0ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MU0ConvAdj_Quote#0005</v>
       </c>
       <c r="AN39" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM39)</f>
@@ -16143,7 +16146,7 @@
       </c>
       <c r="AM40" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL40,IborIndex,AK40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ0ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MZ0ConvAdj_Quote#0005</v>
       </c>
       <c r="AN40" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM40)</f>
@@ -16244,7 +16247,7 @@
       </c>
       <c r="AM41" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL41,IborIndex,AK41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH1ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MH1ConvAdj_Quote#0005</v>
       </c>
       <c r="AN41" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM41)</f>
@@ -16345,7 +16348,7 @@
       </c>
       <c r="AM42" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL42,IborIndex,AK42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM1ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MM1ConvAdj_Quote#0005</v>
       </c>
       <c r="AN42" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM42)</f>
@@ -16446,7 +16449,7 @@
       </c>
       <c r="AM43" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL43,IborIndex,AK43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU1ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MU1ConvAdj_Quote#0005</v>
       </c>
       <c r="AN43" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM43)</f>
@@ -16547,7 +16550,7 @@
       </c>
       <c r="AM44" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL44,IborIndex,AK44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>JPYFUT3MZ1ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MZ1ConvAdj_Quote#0005</v>
       </c>
       <c r="AN44" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM44)</f>
@@ -16648,7 +16651,7 @@
       </c>
       <c r="AM45" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL45,IborIndex,AK45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>JPYFUT3MH2ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MH2ConvAdj_Quote#0005</v>
       </c>
       <c r="AN45" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM45)</f>
@@ -16749,7 +16752,7 @@
       </c>
       <c r="AM46" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL46,IborIndex,AK46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>JPYFUT3MM2ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MM2ConvAdj_Quote#0005</v>
       </c>
       <c r="AN46" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM46)</f>
@@ -16850,7 +16853,7 @@
       </c>
       <c r="AM47" s="184" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL47,IborIndex,AK47,F47,Volatility,MeanReversion,Permanent,AND(ISERROR(Z47),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>JPYFUT3MU2ConvAdj_Quote#0020</v>
+        <v>JPYFUT3MU2ConvAdj_Quote#0005</v>
       </c>
       <c r="AN47" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(AM47)</f>
@@ -16901,10 +16904,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z6:Z47">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16999,7 +17002,7 @@
       <c r="P3" s="108"/>
       <c r="Q3" s="223">
         <f>_xll.ohTrigger(Q5:Q9)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R3" s="22"/>
       <c r="S3" s="13"/>
@@ -17027,16 +17030,16 @@
       <c r="G4" s="226"/>
       <c r="H4" s="267" t="str">
         <f>_xll.RData(H5,I4,"RTFEED:IDN",ReutersRtMode,,I5)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="I4" s="294" t="s">
         <v>178</v>
       </c>
       <c r="J4" s="285"/>
-      <c r="K4" s="510" t="s">
+      <c r="K4" s="511" t="s">
         <v>229</v>
       </c>
-      <c r="L4" s="511"/>
+      <c r="L4" s="512"/>
       <c r="M4" s="285"/>
       <c r="N4" s="221" t="s">
         <v>208</v>
@@ -17075,7 +17078,7 @@
         <v>JP4Y6LATM=ICAP</v>
       </c>
       <c r="I5" s="292">
-        <v>81.89</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="J5" s="285"/>
       <c r="K5" s="291" t="s">
@@ -17349,7 +17352,7 @@
       <c r="X3" s="108"/>
       <c r="Y3" s="223">
         <f>_xll.ohTrigger(Y5:Y15)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="162"/>
     </row>
@@ -17378,7 +17381,7 @@
       <c r="N4" s="142"/>
       <c r="O4" s="189" t="str">
         <f>_xll.RData(O5:O18,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="P4" s="243" t="s">
         <v>178</v>
@@ -18361,10 +18364,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Y5:Y18">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18490,7 +18493,7 @@
       <c r="AB3" s="108"/>
       <c r="AC3" s="223">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="162"/>
       <c r="AE3" s="13"/>
@@ -18516,7 +18519,7 @@
       <c r="R4" s="142"/>
       <c r="S4" s="189" t="str">
         <f>_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="T4" s="243" t="s">
         <v>178</v>
@@ -18709,8 +18712,8 @@
         <v>0.20250000000000001</v>
       </c>
       <c r="Y6" s="194"/>
-      <c r="Z6" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z6" s="195">
+        <v>0.20250000000000001</v>
       </c>
       <c r="AA6" s="194"/>
       <c r="AB6" s="254">
@@ -18885,8 +18888,8 @@
         <v>0.19874999999999998</v>
       </c>
       <c r="Y8" s="194"/>
-      <c r="Z8" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z8" s="195">
+        <v>0.19874999999999998</v>
       </c>
       <c r="AA8" s="194"/>
       <c r="AB8" s="254">
@@ -19065,8 +19068,8 @@
         <v>0.19874999999999998</v>
       </c>
       <c r="Y10" s="194"/>
-      <c r="Z10" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z10" s="195">
+        <v>0.19874999999999998</v>
       </c>
       <c r="AA10" s="194"/>
       <c r="AB10" s="254">
@@ -19126,10 +19129,10 @@
         <v>JPYSB3T3Y=SMKR</v>
       </c>
       <c r="T11" s="192">
-        <v>0.19</v>
+        <v>0.19125</v>
       </c>
       <c r="U11" s="192">
-        <v>0.23</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="V11" s="192">
         <v>0</v>
@@ -19139,15 +19142,15 @@
       </c>
       <c r="X11" s="196">
         <f>_xll.qlMidSafe($T11,$U11)</f>
-        <v>0.21000000000000002</v>
+        <v>0.21124999999999999</v>
       </c>
       <c r="Y11" s="194"/>
-      <c r="Z11" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z11" s="195">
+        <v>0.21124999999999999</v>
       </c>
       <c r="AA11" s="194"/>
       <c r="AB11" s="254">
-        <v>0.21000000000000002</v>
+        <v>0.21124999999999999</v>
       </c>
       <c r="AC11" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/100,Trigger)</f>
@@ -19219,8 +19222,8 @@
         <v>0.24249999999999999</v>
       </c>
       <c r="Y12" s="194"/>
-      <c r="Z12" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z12" s="195">
+        <v>0.24249999999999999</v>
       </c>
       <c r="AA12" s="194"/>
       <c r="AB12" s="254">
@@ -19280,10 +19283,10 @@
         <v>JPYSB3T5Y=SMKR</v>
       </c>
       <c r="T13" s="192">
-        <v>0.27625</v>
+        <v>0.27750000000000002</v>
       </c>
       <c r="U13" s="192">
-        <v>0.31624999999999998</v>
+        <v>0.3175</v>
       </c>
       <c r="V13" s="192">
         <v>0</v>
@@ -19293,15 +19296,15 @@
       </c>
       <c r="X13" s="196">
         <f>_xll.qlMidSafe($T13,$U13)</f>
-        <v>0.29625000000000001</v>
+        <v>0.29749999999999999</v>
       </c>
       <c r="Y13" s="194"/>
-      <c r="Z13" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z13" s="195">
+        <v>0.29749999999999999</v>
       </c>
       <c r="AA13" s="194"/>
       <c r="AB13" s="254">
-        <v>0.29625000000000001</v>
+        <v>0.29749999999999999</v>
       </c>
       <c r="AC13" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/100,Trigger)</f>
@@ -19357,10 +19360,10 @@
         <v>JPYSB3T6Y=SMKR</v>
       </c>
       <c r="T14" s="192">
-        <v>0.35249999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="U14" s="192">
-        <v>0.39250000000000002</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="V14" s="192">
         <v>0</v>
@@ -19370,15 +19373,15 @@
       </c>
       <c r="X14" s="196">
         <f>_xll.qlMidSafe($T14,$U14)</f>
-        <v>0.3725</v>
+        <v>0.375</v>
       </c>
       <c r="Y14" s="194"/>
-      <c r="Z14" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z14" s="195">
+        <v>0.375</v>
       </c>
       <c r="AA14" s="194"/>
       <c r="AB14" s="254">
-        <v>0.3725</v>
+        <v>0.375</v>
       </c>
       <c r="AC14" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/100,Trigger)</f>
@@ -19434,10 +19437,10 @@
         <v>JPYSB3T7Y=SMKR</v>
       </c>
       <c r="T15" s="192">
-        <v>0.44124999999999998</v>
+        <v>0.44750000000000001</v>
       </c>
       <c r="U15" s="192">
-        <v>0.48125000000000001</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="V15" s="192">
         <v>0</v>
@@ -19447,15 +19450,15 @@
       </c>
       <c r="X15" s="196">
         <f>_xll.qlMidSafe($T15,$U15)</f>
-        <v>0.46124999999999999</v>
+        <v>0.46750000000000003</v>
       </c>
       <c r="Y15" s="194"/>
-      <c r="Z15" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z15" s="195">
+        <v>0.46750000000000003</v>
       </c>
       <c r="AA15" s="194"/>
       <c r="AB15" s="254">
-        <v>0.46124999999999999</v>
+        <v>0.46750000000000003</v>
       </c>
       <c r="AC15" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/100,Trigger)</f>
@@ -19511,10 +19514,10 @@
         <v>JPYSB3T8Y=SMKR</v>
       </c>
       <c r="T16" s="192">
-        <v>0.53749999999999998</v>
+        <v>0.54374999999999996</v>
       </c>
       <c r="U16" s="192">
-        <v>0.57750000000000001</v>
+        <v>0.58374999999999999</v>
       </c>
       <c r="V16" s="192">
         <v>0</v>
@@ -19524,15 +19527,15 @@
       </c>
       <c r="X16" s="196">
         <f>_xll.qlMidSafe($T16,$U16)</f>
-        <v>0.5575</v>
+        <v>0.56374999999999997</v>
       </c>
       <c r="Y16" s="194"/>
-      <c r="Z16" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z16" s="195">
+        <v>0.56374999999999997</v>
       </c>
       <c r="AA16" s="194"/>
       <c r="AB16" s="254">
-        <v>0.5575</v>
+        <v>0.56374999999999997</v>
       </c>
       <c r="AC16" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/100,Trigger)</f>
@@ -19588,10 +19591,10 @@
         <v>JPYSB3T9Y=SMKR</v>
       </c>
       <c r="T17" s="192">
-        <v>0.63375000000000004</v>
+        <v>0.64249999999999996</v>
       </c>
       <c r="U17" s="192">
-        <v>0.67374999999999996</v>
+        <v>0.6825</v>
       </c>
       <c r="V17" s="192">
         <v>0</v>
@@ -19601,15 +19604,15 @@
       </c>
       <c r="X17" s="196">
         <f>_xll.qlMidSafe($T17,$U17)</f>
-        <v>0.65375000000000005</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="Y17" s="194"/>
-      <c r="Z17" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z17" s="195">
+        <v>0.66249999999999998</v>
       </c>
       <c r="AA17" s="194"/>
       <c r="AB17" s="254">
-        <v>0.65375000000000005</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="AC17" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/100,Trigger)</f>
@@ -19665,10 +19668,10 @@
         <v>JPYSB3T10Y=SMKR</v>
       </c>
       <c r="T18" s="192">
-        <v>0.73250000000000004</v>
+        <v>0.74250000000000005</v>
       </c>
       <c r="U18" s="192">
-        <v>0.77249999999999996</v>
+        <v>0.78249999999999997</v>
       </c>
       <c r="V18" s="192">
         <v>0</v>
@@ -19678,15 +19681,15 @@
       </c>
       <c r="X18" s="196">
         <f>_xll.qlMidSafe($T18,$U18)</f>
-        <v>0.75249999999999995</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="Y18" s="194"/>
-      <c r="Z18" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z18" s="195">
+        <v>0.76249999999999996</v>
       </c>
       <c r="AA18" s="194"/>
       <c r="AB18" s="254">
-        <v>0.75249999999999995</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="AC18" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/100,Trigger)</f>
@@ -19742,10 +19745,10 @@
         <v>JPYSB3T11Y=SMKR</v>
       </c>
       <c r="T19" s="192">
-        <v>0.83250000000000002</v>
+        <v>0.84250000000000003</v>
       </c>
       <c r="U19" s="192">
-        <v>0.87250000000000005</v>
+        <v>0.88249999999999995</v>
       </c>
       <c r="V19" s="192">
         <v>0</v>
@@ -19755,15 +19758,15 @@
       </c>
       <c r="X19" s="196">
         <f>_xll.qlMidSafe($T19,$U19)</f>
-        <v>0.85250000000000004</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="Y19" s="194"/>
-      <c r="Z19" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z19" s="195">
+        <v>0.86250000000000004</v>
       </c>
       <c r="AA19" s="194"/>
       <c r="AB19" s="254">
-        <v>0.85250000000000004</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="AC19" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/100,Trigger)</f>
@@ -19819,10 +19822,10 @@
         <v>JPYSB3T12Y=SMKR</v>
       </c>
       <c r="T20" s="192">
-        <v>0.92874999999999996</v>
+        <v>0.94</v>
       </c>
       <c r="U20" s="192">
-        <v>0.96875</v>
+        <v>0.98</v>
       </c>
       <c r="V20" s="192">
         <v>0</v>
@@ -19832,15 +19835,15 @@
       </c>
       <c r="X20" s="196">
         <f>_xll.qlMidSafe($T20,$U20)</f>
-        <v>0.94874999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="Y20" s="194"/>
-      <c r="Z20" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z20" s="195">
+        <v>0.96</v>
       </c>
       <c r="AA20" s="194"/>
       <c r="AB20" s="254">
-        <v>0.94874999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="AC20" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/100,Trigger)</f>
@@ -20050,10 +20053,10 @@
         <v>JPYSB3T15Y=SMKR</v>
       </c>
       <c r="T23" s="192">
-        <v>1.20875</v>
+        <v>1.22</v>
       </c>
       <c r="U23" s="192">
-        <v>1.24875</v>
+        <v>1.26</v>
       </c>
       <c r="V23" s="192">
         <v>0</v>
@@ -20063,15 +20066,15 @@
       </c>
       <c r="X23" s="196">
         <f>_xll.qlMidSafe($T23,$U23)</f>
-        <v>1.22875</v>
+        <v>1.24</v>
       </c>
       <c r="Y23" s="194"/>
-      <c r="Z23" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z23" s="195">
+        <v>1.24</v>
       </c>
       <c r="AA23" s="194"/>
       <c r="AB23" s="254">
-        <v>1.22875</v>
+        <v>1.24</v>
       </c>
       <c r="AC23" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/100,Trigger)</f>
@@ -20435,10 +20438,10 @@
         <v>JPYSB3T20Y=SMKR</v>
       </c>
       <c r="T28" s="192">
-        <v>1.5425</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="U28" s="192">
-        <v>1.5825</v>
+        <v>1.595</v>
       </c>
       <c r="V28" s="192">
         <v>0</v>
@@ -20448,15 +20451,15 @@
       </c>
       <c r="X28" s="196">
         <f>_xll.qlMidSafe($T28,$U28)</f>
-        <v>1.5625</v>
+        <v>1.575</v>
       </c>
       <c r="Y28" s="194"/>
-      <c r="Z28" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z28" s="195">
+        <v>1.575</v>
       </c>
       <c r="AA28" s="194"/>
       <c r="AB28" s="254">
-        <v>1.5625</v>
+        <v>1.575</v>
       </c>
       <c r="AC28" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/100,Trigger)</f>
@@ -20820,10 +20823,10 @@
         <v>JPYSB3T25Y=SMKR</v>
       </c>
       <c r="T33" s="192">
-        <v>1.70875</v>
+        <v>1.7212499999999999</v>
       </c>
       <c r="U33" s="192">
-        <v>1.74875</v>
+        <v>1.76125</v>
       </c>
       <c r="V33" s="192">
         <v>0</v>
@@ -20833,15 +20836,15 @@
       </c>
       <c r="X33" s="196">
         <f>_xll.qlMidSafe($T33,$U33)</f>
-        <v>1.72875</v>
+        <v>1.74125</v>
       </c>
       <c r="Y33" s="194"/>
-      <c r="Z33" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z33" s="195">
+        <v>1.74125</v>
       </c>
       <c r="AA33" s="194"/>
       <c r="AB33" s="254">
-        <v>1.72875</v>
+        <v>1.74125</v>
       </c>
       <c r="AC33" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/100,Trigger)</f>
@@ -21205,10 +21208,10 @@
         <v>JPYSB3T30Y=SMKR</v>
       </c>
       <c r="T38" s="192">
-        <v>1.7987500000000001</v>
+        <v>1.8125</v>
       </c>
       <c r="U38" s="192">
-        <v>1.8387500000000001</v>
+        <v>1.8525</v>
       </c>
       <c r="V38" s="192">
         <v>0</v>
@@ -21218,15 +21221,15 @@
       </c>
       <c r="X38" s="196">
         <f>_xll.qlMidSafe($T38,$U38)</f>
-        <v>1.8187500000000001</v>
+        <v>1.8325</v>
       </c>
       <c r="Y38" s="194"/>
-      <c r="Z38" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z38" s="195">
+        <v>1.8325</v>
       </c>
       <c r="AA38" s="194"/>
       <c r="AB38" s="254">
-        <v>1.8187500000000001</v>
+        <v>1.8325</v>
       </c>
       <c r="AC38" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/100,Trigger)</f>
@@ -21282,10 +21285,10 @@
         <v>JPYSB3T35Y=SMKR</v>
       </c>
       <c r="T39" s="192">
-        <v>1.865</v>
+        <v>1.8787499999999999</v>
       </c>
       <c r="U39" s="192">
-        <v>1.905</v>
+        <v>1.91875</v>
       </c>
       <c r="V39" s="192">
         <v>0</v>
@@ -21295,15 +21298,15 @@
       </c>
       <c r="X39" s="196">
         <f>_xll.qlMidSafe($T39,$U39)</f>
-        <v>1.885</v>
+        <v>1.8987499999999999</v>
       </c>
       <c r="Y39" s="194"/>
-      <c r="Z39" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z39" s="195">
+        <v>1.8987499999999999</v>
       </c>
       <c r="AA39" s="194"/>
       <c r="AB39" s="254">
-        <v>1.885</v>
+        <v>1.8987499999999999</v>
       </c>
       <c r="AC39" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/100,Trigger)</f>
@@ -21359,10 +21362,10 @@
         <v>JPYSB3T40Y=SMKR</v>
       </c>
       <c r="T40" s="192">
-        <v>1.91875</v>
+        <v>1.9325000000000001</v>
       </c>
       <c r="U40" s="192">
-        <v>1.95875</v>
+        <v>1.9724999999999999</v>
       </c>
       <c r="V40" s="192">
         <v>0</v>
@@ -21372,15 +21375,15 @@
       </c>
       <c r="X40" s="196">
         <f>_xll.qlMidSafe($T40,$U40)</f>
-        <v>1.93875</v>
+        <v>1.9525000000000001</v>
       </c>
       <c r="Y40" s="194"/>
-      <c r="Z40" s="195" t="e">
-        <v>#NUM!</v>
+      <c r="Z40" s="195">
+        <v>1.9525000000000001</v>
       </c>
       <c r="AA40" s="194"/>
       <c r="AB40" s="254">
-        <v>1.93875</v>
+        <v>1.9525000000000001</v>
       </c>
       <c r="AC40" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F40,AB40/100,Trigger)</f>
@@ -21583,10 +21586,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AC5:AC42">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21711,7 +21714,7 @@
       <c r="AB3" s="108"/>
       <c r="AC3" s="223">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="162"/>
       <c r="AE3" s="13"/>
@@ -21737,7 +21740,7 @@
       <c r="R4" s="142"/>
       <c r="S4" s="189" t="str">
         <f>_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="T4" s="243" t="s">
         <v>178</v>
@@ -24936,10 +24939,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AC5:AC42">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24960,7 +24963,7 @@
   <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -25079,7 +25082,7 @@
       <c r="AB3" s="108"/>
       <c r="AC3" s="223">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="162"/>
       <c r="AE3" s="13"/>
@@ -25114,7 +25117,7 @@
       <c r="R4" s="142"/>
       <c r="S4" s="189" t="str">
         <f>_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="T4" s="243" t="s">
         <v>178</v>
@@ -25218,8 +25221,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y5" s="194"/>
-      <c r="Z5" s="195">
-        <v>0</v>
+      <c r="Z5" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA5" s="194"/>
       <c r="AB5" s="254" t="e">
@@ -25317,7 +25320,7 @@
       </c>
       <c r="Y6" s="194"/>
       <c r="Z6" s="195">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AA6" s="194"/>
       <c r="AB6" s="254">
@@ -25411,8 +25414,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y7" s="194"/>
-      <c r="Z7" s="195">
-        <v>0</v>
+      <c r="Z7" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA7" s="194"/>
       <c r="AB7" s="254" t="e">
@@ -25498,7 +25501,7 @@
       </c>
       <c r="Y8" s="194"/>
       <c r="Z8" s="195">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AA8" s="194"/>
       <c r="AB8" s="254">
@@ -25583,8 +25586,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y9" s="194"/>
-      <c r="Z9" s="195">
-        <v>0</v>
+      <c r="Z9" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA9" s="194"/>
       <c r="AB9" s="254" t="e">
@@ -25670,7 +25673,7 @@
       </c>
       <c r="Y10" s="194"/>
       <c r="Z10" s="195">
-        <v>0</v>
+        <v>0.1825</v>
       </c>
       <c r="AA10" s="194"/>
       <c r="AB10" s="254">
@@ -25733,10 +25736,10 @@
         <v>JPYSB6L3Y=ICAP</v>
       </c>
       <c r="T11" s="192">
-        <v>0.17249999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="U11" s="192">
-        <v>0.23250000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="V11" s="192">
         <v>0</v>
@@ -25746,15 +25749,15 @@
       </c>
       <c r="X11" s="196">
         <f>_xll.qlMidEquivalent($T11,$U11,$V11,$W11)</f>
-        <v>0.20250000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="Y11" s="194"/>
       <c r="Z11" s="195">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AA11" s="194"/>
       <c r="AB11" s="254">
-        <v>0.20250000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AC11" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/100,Trigger)</f>
@@ -25830,7 +25833,7 @@
       </c>
       <c r="Y12" s="194"/>
       <c r="Z12" s="195">
-        <v>0</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="AA12" s="194"/>
       <c r="AB12" s="254">
@@ -25910,7 +25913,7 @@
       </c>
       <c r="Y13" s="194"/>
       <c r="Z13" s="195">
-        <v>0</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="AA13" s="194"/>
       <c r="AB13" s="254">
@@ -25973,10 +25976,10 @@
         <v>JPYSB6L6Y=ICAP</v>
       </c>
       <c r="T14" s="192">
-        <v>0.35</v>
+        <v>0.35249999999999998</v>
       </c>
       <c r="U14" s="192">
-        <v>0.41</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="V14" s="192">
         <v>0</v>
@@ -25986,15 +25989,15 @@
       </c>
       <c r="X14" s="196">
         <f>_xll.qlMidEquivalent($T14,$U14,$V14,$W14)</f>
-        <v>0.38</v>
+        <v>0.38249999999999995</v>
       </c>
       <c r="Y14" s="194"/>
       <c r="Z14" s="195">
-        <v>0</v>
+        <v>0.38249999999999995</v>
       </c>
       <c r="AA14" s="194"/>
       <c r="AB14" s="254">
-        <v>0.38</v>
+        <v>0.38249999999999995</v>
       </c>
       <c r="AC14" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/100,Trigger)</f>
@@ -26008,7 +26011,7 @@
       <c r="AI14" s="13"/>
       <c r="AJ14" s="228">
         <f t="shared" si="1"/>
-        <v>5.9999999999999941E-4</v>
+        <v>6.0000000000000049E-4</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
@@ -26053,10 +26056,10 @@
         <v>JPYSB6L7Y=ICAP</v>
       </c>
       <c r="T15" s="192">
-        <v>0.44</v>
+        <v>0.4425</v>
       </c>
       <c r="U15" s="192">
-        <v>0.5</v>
+        <v>0.50249999999999995</v>
       </c>
       <c r="V15" s="192">
         <v>0</v>
@@ -26066,15 +26069,15 @@
       </c>
       <c r="X15" s="196">
         <f>_xll.qlMidEquivalent($T15,$U15,$V15,$W15)</f>
-        <v>0.47</v>
+        <v>0.47249999999999998</v>
       </c>
       <c r="Y15" s="194"/>
       <c r="Z15" s="195">
-        <v>0</v>
+        <v>0.47249999999999998</v>
       </c>
       <c r="AA15" s="194"/>
       <c r="AB15" s="254">
-        <v>0.47</v>
+        <v>0.47249999999999998</v>
       </c>
       <c r="AC15" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/100,Trigger)</f>
@@ -26088,7 +26091,7 @@
       <c r="AI15" s="13"/>
       <c r="AJ15" s="228">
         <f t="shared" si="1"/>
-        <v>6.0000000000000049E-4</v>
+        <v>5.9999999999999941E-4</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -26133,10 +26136,10 @@
         <v>JPYSB6L8Y=ICAP</v>
       </c>
       <c r="T16" s="192">
-        <v>0.53249999999999997</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="U16" s="192">
-        <v>0.59250000000000003</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="V16" s="192">
         <v>0</v>
@@ -26146,15 +26149,15 @@
       </c>
       <c r="X16" s="196">
         <f>_xll.qlMidEquivalent($T16,$U16,$V16,$W16)</f>
-        <v>0.5625</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="Y16" s="194"/>
       <c r="Z16" s="195">
-        <v>0</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="AA16" s="194"/>
       <c r="AB16" s="254">
-        <v>0.5625</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="AC16" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/100,Trigger)</f>
@@ -26213,10 +26216,10 @@
         <v>JPYSB6L9Y=ICAP</v>
       </c>
       <c r="T17" s="192">
-        <v>0.62749999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="U17" s="192">
-        <v>0.6875</v>
+        <v>0.69</v>
       </c>
       <c r="V17" s="192">
         <v>0</v>
@@ -26226,15 +26229,15 @@
       </c>
       <c r="X17" s="196">
         <f>_xll.qlMidEquivalent($T17,$U17,$V17,$W17)</f>
-        <v>0.65749999999999997</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="Y17" s="194"/>
       <c r="Z17" s="195">
-        <v>0</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="AA17" s="194"/>
       <c r="AB17" s="254">
-        <v>0.65749999999999997</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="AC17" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/100,Trigger)</f>
@@ -26293,10 +26296,10 @@
         <v>JPYSB6L10Y=ICAP</v>
       </c>
       <c r="T18" s="192">
-        <v>0.72</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="U18" s="192">
-        <v>0.78</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="V18" s="192">
         <v>0</v>
@@ -26306,15 +26309,15 @@
       </c>
       <c r="X18" s="196">
         <f>_xll.qlMidEquivalent($T18,$U18,$V18,$W18)</f>
-        <v>0.75</v>
+        <v>0.755</v>
       </c>
       <c r="Y18" s="194"/>
       <c r="Z18" s="195">
-        <v>0</v>
+        <v>0.755</v>
       </c>
       <c r="AA18" s="194"/>
       <c r="AB18" s="254">
-        <v>0.75</v>
+        <v>0.755</v>
       </c>
       <c r="AC18" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/100,Trigger)</f>
@@ -26389,8 +26392,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y19" s="194"/>
-      <c r="Z19" s="195">
-        <v>0</v>
+      <c r="Z19" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA19" s="194"/>
       <c r="AB19" s="254" t="e">
@@ -26453,10 +26456,10 @@
         <v>JPYSB6L12Y=ICAP</v>
       </c>
       <c r="T20" s="192">
-        <v>0.89749999999999996</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="U20" s="192">
-        <v>0.97750000000000004</v>
+        <v>0.98250000000000004</v>
       </c>
       <c r="V20" s="192">
         <v>0</v>
@@ -26466,15 +26469,15 @@
       </c>
       <c r="X20" s="196">
         <f>_xll.qlMidEquivalent($T20,$U20,$V20,$W20)</f>
-        <v>0.9375</v>
+        <v>0.9425</v>
       </c>
       <c r="Y20" s="194"/>
       <c r="Z20" s="195">
-        <v>0</v>
+        <v>0.9425</v>
       </c>
       <c r="AA20" s="194"/>
       <c r="AB20" s="254">
-        <v>0.9375</v>
+        <v>0.9425</v>
       </c>
       <c r="AC20" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/100,Trigger)</f>
@@ -26549,8 +26552,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y21" s="194"/>
-      <c r="Z21" s="195">
-        <v>0</v>
+      <c r="Z21" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA21" s="194"/>
       <c r="AB21" s="254" t="e">
@@ -26629,8 +26632,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y22" s="194"/>
-      <c r="Z22" s="195">
-        <v>0</v>
+      <c r="Z22" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA22" s="194"/>
       <c r="AB22" s="254" t="e">
@@ -26693,10 +26696,10 @@
         <v>JPYSB6L15Y=ICAP</v>
       </c>
       <c r="T23" s="192">
-        <v>1.1625000000000001</v>
+        <v>1.1675</v>
       </c>
       <c r="U23" s="192">
-        <v>1.2424999999999999</v>
+        <v>1.2475000000000001</v>
       </c>
       <c r="V23" s="192">
         <v>0</v>
@@ -26706,15 +26709,15 @@
       </c>
       <c r="X23" s="196">
         <f>_xll.qlMidEquivalent($T23,$U23,$V23,$W23)</f>
-        <v>1.2025000000000001</v>
+        <v>1.2075</v>
       </c>
       <c r="Y23" s="194"/>
       <c r="Z23" s="195">
-        <v>0</v>
+        <v>1.2075</v>
       </c>
       <c r="AA23" s="194"/>
       <c r="AB23" s="254">
-        <v>1.2025000000000001</v>
+        <v>1.2075</v>
       </c>
       <c r="AC23" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/100,Trigger)</f>
@@ -26728,7 +26731,7 @@
       <c r="AI23" s="13"/>
       <c r="AJ23" s="228">
         <f t="shared" si="1"/>
-        <v>7.9999999999999624E-4</v>
+        <v>8.0000000000000069E-4</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
@@ -26789,8 +26792,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y24" s="194"/>
-      <c r="Z24" s="195">
-        <v>0</v>
+      <c r="Z24" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA24" s="194"/>
       <c r="AB24" s="254" t="e">
@@ -26869,8 +26872,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y25" s="194"/>
-      <c r="Z25" s="195">
-        <v>0</v>
+      <c r="Z25" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA25" s="194"/>
       <c r="AB25" s="254" t="e">
@@ -26949,8 +26952,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y26" s="194"/>
-      <c r="Z26" s="195">
-        <v>0</v>
+      <c r="Z26" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA26" s="194"/>
       <c r="AB26" s="254" t="e">
@@ -27029,8 +27032,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y27" s="194"/>
-      <c r="Z27" s="195">
-        <v>0</v>
+      <c r="Z27" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA27" s="194"/>
       <c r="AB27" s="254" t="e">
@@ -27093,10 +27096,10 @@
         <v>JPYSB6L20Y=ICAP</v>
       </c>
       <c r="T28" s="192">
-        <v>1.48</v>
+        <v>1.4875</v>
       </c>
       <c r="U28" s="192">
-        <v>1.56</v>
+        <v>1.5674999999999999</v>
       </c>
       <c r="V28" s="192">
         <v>0</v>
@@ -27106,15 +27109,15 @@
       </c>
       <c r="X28" s="196">
         <f>_xll.qlMidEquivalent($T28,$U28,$V28,$W28)</f>
-        <v>1.52</v>
+        <v>1.5274999999999999</v>
       </c>
       <c r="Y28" s="194"/>
       <c r="Z28" s="195">
-        <v>0</v>
+        <v>1.5274999999999999</v>
       </c>
       <c r="AA28" s="194"/>
       <c r="AB28" s="254">
-        <v>1.52</v>
+        <v>1.5274999999999999</v>
       </c>
       <c r="AC28" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/100,Trigger)</f>
@@ -27189,8 +27192,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y29" s="194"/>
-      <c r="Z29" s="195">
-        <v>0</v>
+      <c r="Z29" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA29" s="194"/>
       <c r="AB29" s="254" t="e">
@@ -27269,8 +27272,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y30" s="194"/>
-      <c r="Z30" s="195">
-        <v>0</v>
+      <c r="Z30" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA30" s="194"/>
       <c r="AB30" s="254" t="e">
@@ -27349,8 +27352,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y31" s="194"/>
-      <c r="Z31" s="195">
-        <v>0</v>
+      <c r="Z31" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA31" s="194"/>
       <c r="AB31" s="254" t="e">
@@ -27429,8 +27432,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y32" s="194"/>
-      <c r="Z32" s="195">
-        <v>0</v>
+      <c r="Z32" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA32" s="194"/>
       <c r="AB32" s="254" t="e">
@@ -27493,10 +27496,10 @@
         <v>JPYSB6L25Y=ICAP</v>
       </c>
       <c r="T33" s="192">
-        <v>1.6425000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="U33" s="192">
-        <v>1.7224999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="V33" s="192">
         <v>0</v>
@@ -27506,15 +27509,15 @@
       </c>
       <c r="X33" s="196">
         <f>_xll.qlMidEquivalent($T33,$U33,$V33,$W33)</f>
-        <v>1.6825000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="Y33" s="194"/>
       <c r="Z33" s="195">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AA33" s="194"/>
       <c r="AB33" s="254">
-        <v>1.6825000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="AC33" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/100,Trigger)</f>
@@ -27528,7 +27531,7 @@
       <c r="AI33" s="13"/>
       <c r="AJ33" s="228">
         <f t="shared" si="1"/>
-        <v>7.9999999999999624E-4</v>
+        <v>8.0000000000000069E-4</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
@@ -27589,8 +27592,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y34" s="194"/>
-      <c r="Z34" s="195">
-        <v>0</v>
+      <c r="Z34" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA34" s="194"/>
       <c r="AB34" s="254" t="e">
@@ -27669,8 +27672,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y35" s="194"/>
-      <c r="Z35" s="195">
-        <v>0</v>
+      <c r="Z35" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA35" s="194"/>
       <c r="AB35" s="254" t="e">
@@ -27749,8 +27752,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y36" s="194"/>
-      <c r="Z36" s="195">
-        <v>0</v>
+      <c r="Z36" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA36" s="194"/>
       <c r="AB36" s="254" t="e">
@@ -27829,8 +27832,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y37" s="194"/>
-      <c r="Z37" s="195">
-        <v>0</v>
+      <c r="Z37" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA37" s="194"/>
       <c r="AB37" s="254" t="e">
@@ -27893,10 +27896,10 @@
         <v>JPYSB6L30Y=ICAP</v>
       </c>
       <c r="T38" s="192">
-        <v>1.73</v>
+        <v>1.7375</v>
       </c>
       <c r="U38" s="192">
-        <v>1.81</v>
+        <v>1.8174999999999999</v>
       </c>
       <c r="V38" s="192">
         <v>0</v>
@@ -27906,15 +27909,15 @@
       </c>
       <c r="X38" s="196">
         <f>_xll.qlMidEquivalent($T38,$U38,$V38,$W38)</f>
-        <v>1.77</v>
+        <v>1.7774999999999999</v>
       </c>
       <c r="Y38" s="194"/>
       <c r="Z38" s="195">
-        <v>0</v>
+        <v>1.7774999999999999</v>
       </c>
       <c r="AA38" s="194"/>
       <c r="AB38" s="254">
-        <v>1.77</v>
+        <v>1.7774999999999999</v>
       </c>
       <c r="AC38" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/100,Trigger)</f>
@@ -27989,8 +27992,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y39" s="194"/>
-      <c r="Z39" s="195">
-        <v>0</v>
+      <c r="Z39" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA39" s="194"/>
       <c r="AB39" s="254" t="e">
@@ -28069,8 +28072,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y40" s="194"/>
-      <c r="Z40" s="195">
-        <v>0</v>
+      <c r="Z40" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA40" s="194"/>
       <c r="AB40" s="254" t="e">
@@ -28149,8 +28152,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y41" s="194"/>
-      <c r="Z41" s="195">
-        <v>0</v>
+      <c r="Z41" s="195" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA41" s="194"/>
       <c r="AB41" s="254" t="e">
@@ -28229,8 +28232,8 @@
         <v>#NUM!</v>
       </c>
       <c r="Y42" s="194"/>
-      <c r="Z42" s="206">
-        <v>0</v>
+      <c r="Z42" s="206" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA42" s="194"/>
       <c r="AB42" s="247" t="e">
@@ -28286,10 +28289,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AC5:AC42">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28563,7 +28566,7 @@
       <c r="J5" s="465"/>
       <c r="K5" s="440" t="str">
         <f>_xll.RData(K6:K13,L5:M5,"RTFEED:IDN",,,L6)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="L5" s="441" t="s">
         <v>255</v>
@@ -28701,21 +28704,21 @@
         <v>1</v>
       </c>
       <c r="P7" s="467"/>
-      <c r="Q7" s="446" t="e">
+      <c r="Q7" s="446">
         <f>_xll.qlIndexFixing($E7,$L7,TRUE,$N7)</f>
-        <v>#NUM!</v>
+        <v>5.3569999999999996E-4</v>
       </c>
       <c r="R7" s="446">
         <f>IF($O7,_xll.qlIndexFixing($E7,$L7,FALSE,$N7),"-")</f>
         <v>5.3569999999999996E-4</v>
       </c>
-      <c r="S7" s="446" t="e">
+      <c r="S7" s="446">
         <f t="shared" ref="S7:S13" si="4">Q7-R7</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T7" s="450" t="e">
+        <v>0</v>
+      </c>
+      <c r="T7" s="450">
         <f>_xll.qlIndexFixing($E7,$L7,TRUE,$R7)</f>
-        <v>#NUM!</v>
+        <v>5.3569999999999996E-4</v>
       </c>
       <c r="U7" s="451">
         <f t="shared" ref="U7:U13" si="5">IF(ISERROR(S7),0,ABS(S7))</f>
@@ -28769,21 +28772,21 @@
         <v>1</v>
       </c>
       <c r="P8" s="467"/>
-      <c r="Q8" s="446" t="e">
+      <c r="Q8" s="446">
         <f>_xll.qlIndexFixing($E8,$L8,TRUE,$N8)</f>
-        <v>#NUM!</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="R8" s="446">
         <f>IF($O8,_xll.qlIndexFixing($E8,$L8,FALSE,$N8),"-")</f>
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="S8" s="446" t="e">
+      <c r="S8" s="446">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T8" s="450" t="e">
+        <v>0</v>
+      </c>
+      <c r="T8" s="450">
         <f>_xll.qlIndexFixing($E8,$L8,TRUE,$R8)</f>
-        <v>#NUM!</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="U8" s="451">
         <f t="shared" si="5"/>
@@ -28837,21 +28840,21 @@
         <v>1</v>
       </c>
       <c r="P9" s="467"/>
-      <c r="Q9" s="446" t="e">
+      <c r="Q9" s="446">
         <f>_xll.qlIndexFixing($E9,$L9,TRUE,$N9)</f>
-        <v>#NUM!</v>
+        <v>9.7860000000000004E-4</v>
       </c>
       <c r="R9" s="446">
         <f>IF($O9,_xll.qlIndexFixing($E9,$L9,FALSE,$N9),"-")</f>
         <v>9.7860000000000004E-4</v>
       </c>
-      <c r="S9" s="446" t="e">
+      <c r="S9" s="446">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T9" s="450" t="e">
+        <v>0</v>
+      </c>
+      <c r="T9" s="450">
         <f>_xll.qlIndexFixing($E9,$L9,TRUE,$R9)</f>
-        <v>#NUM!</v>
+        <v>9.7860000000000004E-4</v>
       </c>
       <c r="U9" s="451">
         <f t="shared" si="5"/>
@@ -28905,21 +28908,21 @@
         <v>1</v>
       </c>
       <c r="P10" s="467"/>
-      <c r="Q10" s="446" t="e">
+      <c r="Q10" s="446">
         <f>_xll.qlIndexFixing($E10,$L10,TRUE,$N10)</f>
-        <v>#NUM!</v>
+        <v>1.2286E-3</v>
       </c>
       <c r="R10" s="446">
         <f>IF($O10,_xll.qlIndexFixing($E10,$L10,FALSE,$N10),"-")</f>
         <v>1.2286E-3</v>
       </c>
-      <c r="S10" s="446" t="e">
+      <c r="S10" s="446">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T10" s="450" t="e">
+        <v>0</v>
+      </c>
+      <c r="T10" s="450">
         <f>_xll.qlIndexFixing($E10,$L10,TRUE,$R10)</f>
-        <v>#NUM!</v>
+        <v>1.2286E-3</v>
       </c>
       <c r="U10" s="451">
         <f t="shared" si="5"/>
@@ -28976,21 +28979,21 @@
         <v>1</v>
       </c>
       <c r="P11" s="467"/>
-      <c r="Q11" s="446" t="e">
+      <c r="Q11" s="446">
         <f>_xll.qlIndexFixing($E11,$L11,TRUE,$N11)</f>
-        <v>#NUM!</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="R11" s="446">
         <f>IF($O11,_xll.qlIndexFixing($E11,$L11,FALSE,$N11),"-")</f>
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="S11" s="446" t="e">
+      <c r="S11" s="446">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T11" s="450" t="e">
+        <v>0</v>
+      </c>
+      <c r="T11" s="450">
         <f>_xll.qlIndexFixing($E11,$L11,TRUE,$R11)</f>
-        <v>#NUM!</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="U11" s="451">
         <f t="shared" si="5"/>
@@ -29047,21 +29050,21 @@
         <v>1</v>
       </c>
       <c r="P12" s="467"/>
-      <c r="Q12" s="446" t="e">
+      <c r="Q12" s="446">
         <f>_xll.qlIndexFixing($E12,$L12,TRUE,$N12)</f>
-        <v>#NUM!</v>
+        <v>1.8179000000000001E-3</v>
       </c>
       <c r="R12" s="446">
         <f>IF($O12,_xll.qlIndexFixing($E12,$L12,FALSE,$N12),"-")</f>
         <v>1.8179000000000001E-3</v>
       </c>
-      <c r="S12" s="446" t="e">
+      <c r="S12" s="446">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T12" s="450" t="e">
+        <v>0</v>
+      </c>
+      <c r="T12" s="450">
         <f>_xll.qlIndexFixing($E12,$L12,TRUE,$R12)</f>
-        <v>#NUM!</v>
+        <v>1.8179000000000001E-3</v>
       </c>
       <c r="U12" s="451">
         <f t="shared" si="5"/>
@@ -29115,21 +29118,21 @@
         <v>1</v>
       </c>
       <c r="P13" s="468"/>
-      <c r="Q13" s="446" t="e">
+      <c r="Q13" s="446">
         <f>_xll.qlIndexFixing($E13,$L13,TRUE,$N13)</f>
-        <v>#NUM!</v>
+        <v>3.3356999999999996E-3</v>
       </c>
       <c r="R13" s="446">
         <f>IF($O13,_xll.qlIndexFixing($E13,$L13,FALSE,$N13),"-")</f>
         <v>3.3356999999999996E-3</v>
       </c>
-      <c r="S13" s="446" t="e">
+      <c r="S13" s="446">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T13" s="450" t="e">
+        <v>0</v>
+      </c>
+      <c r="T13" s="450">
         <f>_xll.qlIndexFixing($E13,$L13,TRUE,$R13)</f>
-        <v>#NUM!</v>
+        <v>3.3356999999999996E-3</v>
       </c>
       <c r="U13" s="451">
         <f t="shared" si="5"/>
@@ -32717,7 +32720,7 @@
       <c r="J5" s="465"/>
       <c r="K5" s="440" t="str">
         <f>_xll.RData(K6:K18,L5:M5,"RTFEED:IDN",,,L6)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="L5" s="441" t="s">
         <v>255</v>
@@ -32755,11 +32758,11 @@
       <c r="D6" s="439"/>
       <c r="E6" s="444" t="str">
         <f>_xll.qlIborIndex(PROPER(Currency)&amp;"Tibor"&amp;C6,"Tibor",C6,2,Currency,Calendar,"mf",TRUE,"act/365",,,Trigger)</f>
-        <v>JpyTibor1W#0012</v>
+        <v>JpyTibor1W#0001</v>
       </c>
       <c r="F6" s="444" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$E$3&amp;C6&amp;$F$5,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor1WLastFixing_Quote#0002</v>
+        <v>JpyTibor1WLastFixing_Quote#0001</v>
       </c>
       <c r="G6" s="438" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -32779,7 +32782,7 @@
         <v>TIJPY1WD=</v>
       </c>
       <c r="L6" s="447">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M6" s="448">
         <v>0.11125</v>
@@ -32823,11 +32826,11 @@
       <c r="D7" s="439"/>
       <c r="E7" s="444" t="str">
         <f>_xll.qlIborIndex(PROPER(Currency)&amp;"Tibor"&amp;C7,"Tibor",C7,2,Currency,Calendar,"mf",TRUE,"act/365",,,Trigger)</f>
-        <v>JpyTibor1M#0004</v>
+        <v>JpyTibor1M#0001</v>
       </c>
       <c r="F7" s="444" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$E$3&amp;C7&amp;$F$5,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor1MLastFixing_Quote#0004</v>
+        <v>JpyTibor1MLastFixing_Quote#0001</v>
       </c>
       <c r="G7" s="438"/>
       <c r="H7" s="438"/>
@@ -32838,7 +32841,7 @@
         <v>TIJPY1MD=</v>
       </c>
       <c r="L7" s="447">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M7" s="448">
         <v>0.14624999999999999</v>
@@ -32882,11 +32885,11 @@
       <c r="D8" s="439"/>
       <c r="E8" s="444" t="str">
         <f>_xll.qlIborIndex(PROPER(Currency)&amp;"Tibor"&amp;C8,"Tibor",C8,2,Currency,Calendar,"mf",TRUE,"act/365",,,Trigger)</f>
-        <v>JpyTibor2M#0004</v>
+        <v>JpyTibor2M#0001</v>
       </c>
       <c r="F8" s="444" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$E$3&amp;C8&amp;$F$5,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor2MLastFixing_Quote#0004</v>
+        <v>JpyTibor2MLastFixing_Quote#0001</v>
       </c>
       <c r="G8" s="438" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -32906,7 +32909,7 @@
         <v>TIJPY2MD=</v>
       </c>
       <c r="L8" s="447">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M8" s="448">
         <v>0.18</v>
@@ -32953,11 +32956,11 @@
       </c>
       <c r="E9" s="444" t="str">
         <f>_xll.qlIborIndex(PROPER(Currency)&amp;"Tibor"&amp;C9,"Tibor",C9,2,Currency,Calendar,"mf",TRUE,"act/365",,,Trigger)</f>
-        <v>JpyTibor3M#0004</v>
+        <v>JpyTibor3M#0001</v>
       </c>
       <c r="F9" s="444" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$E$3&amp;C9&amp;$F$5,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor3MLastFixing_Quote#0004</v>
+        <v>JpyTibor3MLastFixing_Quote#0001</v>
       </c>
       <c r="G9" s="438" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -32977,7 +32980,7 @@
         <v>TIJPY3MD=</v>
       </c>
       <c r="L9" s="447">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M9" s="448">
         <v>0.21</v>
@@ -33021,11 +33024,11 @@
       <c r="D10" s="439"/>
       <c r="E10" s="444" t="str">
         <f>_xll.qlIborIndex(PROPER(Currency)&amp;"Tibor"&amp;C10,"Tibor",C10,2,Currency,Calendar,"mf",TRUE,"act/365",,,Trigger)</f>
-        <v>JpyTibor4M#0004</v>
+        <v>JpyTibor4M#0001</v>
       </c>
       <c r="F10" s="444" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$E$3&amp;C10&amp;$F$5,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor4MLastFixing_Quote#0004</v>
+        <v>JpyTibor4MLastFixing_Quote#0001</v>
       </c>
       <c r="G10" s="438" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -33045,7 +33048,7 @@
         <v>TIJPY4MD=</v>
       </c>
       <c r="L10" s="447">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M10" s="448">
         <v>0.24</v>
@@ -33089,11 +33092,11 @@
       <c r="D11" s="439"/>
       <c r="E11" s="444" t="str">
         <f>_xll.qlIborIndex(PROPER(Currency)&amp;"Tibor"&amp;C11,"Tibor",C11,2,Currency,Calendar,"mf",TRUE,"act/365",,,Trigger)</f>
-        <v>JpyTibor5M#0004</v>
+        <v>JpyTibor5M#0001</v>
       </c>
       <c r="F11" s="444" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$E$3&amp;C11&amp;$F$5,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor5MLastFixing_Quote#0004</v>
+        <v>JpyTibor5MLastFixing_Quote#0001</v>
       </c>
       <c r="G11" s="438" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -33113,7 +33116,7 @@
         <v>TIJPY5MD=</v>
       </c>
       <c r="L11" s="447">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M11" s="448">
         <v>0.27500000000000002</v>
@@ -33157,11 +33160,11 @@
       <c r="D12" s="439"/>
       <c r="E12" s="444" t="str">
         <f>_xll.qlIborIndex(PROPER(Currency)&amp;"Tibor"&amp;C12,"Tibor",C12,2,Currency,Calendar,"mf",TRUE,"act/365",,,Trigger)</f>
-        <v>JpyTibor6M#0004</v>
+        <v>JpyTibor6M#0001</v>
       </c>
       <c r="F12" s="444" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$E$3&amp;C12&amp;$F$5,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor6MLastFixing_Quote#0004</v>
+        <v>JpyTibor6MLastFixing_Quote#0001</v>
       </c>
       <c r="G12" s="438" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -33181,7 +33184,7 @@
         <v>TIJPY6MD=</v>
       </c>
       <c r="L12" s="447">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M12" s="448">
         <v>0.30375000000000002</v>
@@ -33225,11 +33228,11 @@
       <c r="D13" s="439"/>
       <c r="E13" s="444" t="str">
         <f>_xll.qlIborIndex(PROPER(Currency)&amp;"Tibor"&amp;C13,"Tibor",C13,2,Currency,Calendar,"mf",TRUE,"act/365",,,Trigger)</f>
-        <v>JpyTibor7M#0004</v>
+        <v>JpyTibor7M#0001</v>
       </c>
       <c r="F13" s="444" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$E$3&amp;C13&amp;$F$5,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor7MLastFixing_Quote#0004</v>
+        <v>JpyTibor7MLastFixing_Quote#0001</v>
       </c>
       <c r="G13" s="438"/>
       <c r="H13" s="438"/>
@@ -33240,7 +33243,7 @@
         <v>TIJPY7MD=</v>
       </c>
       <c r="L13" s="447">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M13" s="448">
         <v>0.31125000000000003</v>
@@ -33284,11 +33287,11 @@
       <c r="D14" s="439"/>
       <c r="E14" s="444" t="str">
         <f>_xll.qlIborIndex(PROPER(Currency)&amp;"Tibor"&amp;C14,"Tibor",C14,2,Currency,Calendar,"mf",TRUE,"act/365",,,Trigger)</f>
-        <v>JpyTibor8M#0004</v>
+        <v>JpyTibor8M#0001</v>
       </c>
       <c r="F14" s="444" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$E$3&amp;C14&amp;$F$5,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor8MLastFixing_Quote#0004</v>
+        <v>JpyTibor8MLastFixing_Quote#0001</v>
       </c>
       <c r="G14" s="438"/>
       <c r="H14" s="438"/>
@@ -33299,7 +33302,7 @@
         <v>TIJPY8MD=</v>
       </c>
       <c r="L14" s="447">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M14" s="448">
         <v>0.31874999999999998</v>
@@ -33343,11 +33346,11 @@
       <c r="D15" s="439"/>
       <c r="E15" s="444" t="str">
         <f>_xll.qlIborIndex(PROPER(Currency)&amp;"Tibor"&amp;C15,"Tibor",C15,2,Currency,Calendar,"mf",TRUE,"act/365",,,Trigger)</f>
-        <v>JpyTibor9M#0004</v>
+        <v>JpyTibor9M#0001</v>
       </c>
       <c r="F15" s="444" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$E$3&amp;C15&amp;$F$5,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor9MLastFixing_Quote#0004</v>
+        <v>JpyTibor9MLastFixing_Quote#0001</v>
       </c>
       <c r="G15" s="438"/>
       <c r="H15" s="438"/>
@@ -33358,7 +33361,7 @@
         <v>TIJPY9MD=</v>
       </c>
       <c r="L15" s="447">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M15" s="448">
         <v>0.32</v>
@@ -33402,11 +33405,11 @@
       <c r="D16" s="439"/>
       <c r="E16" s="444" t="str">
         <f>_xll.qlIborIndex(PROPER(Currency)&amp;"Tibor"&amp;C16,"Tibor",C16,2,Currency,Calendar,"mf",TRUE,"act/365",,,Trigger)</f>
-        <v>JpyTibor10M#0004</v>
+        <v>JpyTibor10M#0001</v>
       </c>
       <c r="F16" s="444" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$E$3&amp;C16&amp;$F$5,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor10MLastFixing_Quote#0004</v>
+        <v>JpyTibor10MLastFixing_Quote#0001</v>
       </c>
       <c r="G16" s="438"/>
       <c r="H16" s="438"/>
@@ -33417,7 +33420,7 @@
         <v>TIJPY10MD=</v>
       </c>
       <c r="L16" s="447">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M16" s="448">
         <v>0.32</v>
@@ -33461,11 +33464,11 @@
       <c r="D17" s="439"/>
       <c r="E17" s="444" t="str">
         <f>_xll.qlIborIndex(PROPER(Currency)&amp;"Tibor"&amp;C17,"Tibor",C17,2,Currency,Calendar,"mf",TRUE,"act/365",,,Trigger)</f>
-        <v>JpyTibor11M#0004</v>
+        <v>JpyTibor11M#0001</v>
       </c>
       <c r="F17" s="444" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$E$3&amp;C17&amp;$F$5,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor11MLastFixing_Quote#0004</v>
+        <v>JpyTibor11MLastFixing_Quote#0001</v>
       </c>
       <c r="G17" s="438" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -33485,7 +33488,7 @@
         <v>TIJPY11MD=</v>
       </c>
       <c r="L17" s="447">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M17" s="448">
         <v>0.32</v>
@@ -33529,11 +33532,11 @@
       <c r="D18" s="493"/>
       <c r="E18" s="444" t="str">
         <f>_xll.qlIborIndex(PROPER(Currency)&amp;"Tibor"&amp;C18,"Tibor",C18,2,Currency,Calendar,"mf",TRUE,"act/365",,,Trigger)</f>
-        <v>JpyTibor1Y#0004</v>
+        <v>JpyTibor1Y#0001</v>
       </c>
       <c r="F18" s="494" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;$E$3&amp;C18&amp;$F$5,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyTibor1YLastFixing_Quote#0004</v>
+        <v>JpyTibor1YLastFixing_Quote#0001</v>
       </c>
       <c r="G18" s="495" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -33553,7 +33556,7 @@
         <v>TIJPY1YD=</v>
       </c>
       <c r="L18" s="447">
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M18" s="448">
         <v>0.32</v>
@@ -33839,7 +33842,7 @@
       </c>
       <c r="M6" s="370" t="str">
         <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="N6" s="370" t="s">
         <v>255</v>
@@ -37837,7 +37840,7 @@
       </c>
       <c r="M6" s="370" t="str">
         <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="N6" s="370" t="s">
         <v>255</v>
@@ -40289,7 +40292,7 @@
       <c r="X3" s="108"/>
       <c r="Y3" s="223">
         <f>_xll.ohTrigger(Y5:Y24)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="162"/>
     </row>
@@ -40318,7 +40321,7 @@
       <c r="N4" s="106"/>
       <c r="O4" s="275" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="P4" s="272" t="s">
         <v>178</v>
@@ -40740,7 +40743,7 @@
       </c>
       <c r="U10" s="194"/>
       <c r="V10" s="195">
-        <v>6.5000000000000002E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W10" s="194"/>
       <c r="X10" s="254">
@@ -40807,7 +40810,7 @@
       </c>
       <c r="U11" s="194"/>
       <c r="V11" s="195">
-        <v>6.5000000000000002E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W11" s="194"/>
       <c r="X11" s="254">
@@ -40874,7 +40877,7 @@
       </c>
       <c r="U12" s="194"/>
       <c r="V12" s="195">
-        <v>6.5000000000000002E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W12" s="194"/>
       <c r="X12" s="254">
@@ -41343,7 +41346,7 @@
       </c>
       <c r="U19" s="194"/>
       <c r="V19" s="195">
-        <v>6.25E-2</v>
+        <v>0.06</v>
       </c>
       <c r="W19" s="194"/>
       <c r="X19" s="254">
@@ -42131,10 +42134,10 @@
         <v>JPY2YOIS=ICAP</v>
       </c>
       <c r="P31" s="192">
-        <v>4.2500000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q31" s="192">
-        <v>8.2500000000000004E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="R31" s="192">
         <v>0</v>
@@ -42144,7 +42147,7 @@
       </c>
       <c r="T31" s="196">
         <f>_xll.qlMidEquivalent($P31,$Q31,$R31,$S31)</f>
-        <v>6.25E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="U31" s="194"/>
       <c r="V31" s="195">
@@ -42152,7 +42155,7 @@
       </c>
       <c r="W31" s="194"/>
       <c r="X31" s="254">
-        <v>6.25E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Y31" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
@@ -42399,10 +42402,10 @@
         <v>JPY3YOIS=ICAP</v>
       </c>
       <c r="P35" s="192">
-        <v>4.2500000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q35" s="192">
-        <v>0.10249999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="R35" s="192">
         <v>0</v>
@@ -42412,15 +42415,15 @@
       </c>
       <c r="T35" s="196">
         <f>_xll.qlMidEquivalent($P35,$Q35,$R35,$S35)</f>
-        <v>7.2499999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U35" s="194"/>
       <c r="V35" s="195">
-        <v>7.7499999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W35" s="194"/>
       <c r="X35" s="254">
-        <v>7.2499999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y35" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
@@ -42667,10 +42670,10 @@
         <v>JPY4YOIS=ICAP</v>
       </c>
       <c r="P39" s="192">
-        <v>6.25E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="Q39" s="192">
-        <v>0.1225</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="R39" s="192">
         <v>0</v>
@@ -42680,15 +42683,15 @@
       </c>
       <c r="T39" s="196">
         <f>_xll.qlMidEquivalent($P39,$Q39,$R39,$S39)</f>
-        <v>9.2499999999999999E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="U39" s="194"/>
       <c r="V39" s="195">
-        <v>0.10500000000000001</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="W39" s="194"/>
       <c r="X39" s="254">
-        <v>9.2499999999999999E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="Y39" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F39,X39/100,Trigger)</f>
@@ -42935,10 +42938,10 @@
         <v>JPY5YOIS=ICAP</v>
       </c>
       <c r="P43" s="192">
-        <v>0.10249999999999999</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Q43" s="192">
-        <v>0.16250000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="R43" s="192">
         <v>0</v>
@@ -42948,15 +42951,15 @@
       </c>
       <c r="T43" s="196">
         <f>_xll.qlMidEquivalent($P43,$Q43,$R43,$S43)</f>
-        <v>0.13250000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="U43" s="194"/>
       <c r="V43" s="195">
-        <v>0.14499999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="W43" s="194"/>
       <c r="X43" s="254">
-        <v>0.13250000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="Y43" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F43,X43/100,Trigger)</f>
@@ -43002,10 +43005,10 @@
         <v>JPY6YOIS=ICAP</v>
       </c>
       <c r="P44" s="192">
-        <v>0.13750000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="Q44" s="192">
-        <v>0.23749999999999999</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="R44" s="192">
         <v>0</v>
@@ -43015,15 +43018,15 @@
       </c>
       <c r="T44" s="196">
         <f>_xll.qlMidEquivalent($P44,$Q44,$R44,$S44)</f>
-        <v>0.1875</v>
+        <v>0.185</v>
       </c>
       <c r="U44" s="194"/>
       <c r="V44" s="195">
-        <v>0.20500000000000002</v>
+        <v>0.185</v>
       </c>
       <c r="W44" s="194"/>
       <c r="X44" s="254">
-        <v>0.1875</v>
+        <v>0.185</v>
       </c>
       <c r="Y44" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F44,X44/100,Trigger)</f>
@@ -43086,7 +43089,7 @@
       </c>
       <c r="U45" s="194"/>
       <c r="V45" s="195">
-        <v>0.27</v>
+        <v>0.2525</v>
       </c>
       <c r="W45" s="194"/>
       <c r="X45" s="254">
@@ -43153,7 +43156,7 @@
       </c>
       <c r="U46" s="194"/>
       <c r="V46" s="195">
-        <v>0.33750000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="W46" s="194"/>
       <c r="X46" s="254">
@@ -43220,7 +43223,7 @@
       </c>
       <c r="U47" s="194"/>
       <c r="V47" s="195">
-        <v>0.41000000000000003</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="W47" s="194"/>
       <c r="X47" s="254">
@@ -43287,7 +43290,7 @@
       </c>
       <c r="U48" s="194"/>
       <c r="V48" s="195">
-        <v>0.48249999999999998</v>
+        <v>0.46749999999999997</v>
       </c>
       <c r="W48" s="194"/>
       <c r="X48" s="254">
@@ -43337,10 +43340,10 @@
         <v>JPY12YOIS=ICAP</v>
       </c>
       <c r="P49" s="192">
-        <v>0.58250000000000002</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="Q49" s="192">
-        <v>0.6825</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="R49" s="192">
         <v>0</v>
@@ -43350,15 +43353,15 @@
       </c>
       <c r="T49" s="196">
         <f>_xll.qlMidEquivalent($P49,$Q49,$R49,$S49)</f>
-        <v>0.63250000000000006</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="U49" s="194"/>
       <c r="V49" s="195">
-        <v>0.64749999999999996</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="W49" s="194"/>
       <c r="X49" s="254">
-        <v>0.63250000000000006</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="Y49" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F49,X49/100,Trigger)</f>
@@ -43404,10 +43407,10 @@
         <v>JPY15YOIS=ICAP</v>
       </c>
       <c r="P50" s="192">
-        <v>0.83750000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="Q50" s="192">
-        <v>0.9375</v>
+        <v>0.94</v>
       </c>
       <c r="R50" s="192">
         <v>0</v>
@@ -43417,15 +43420,15 @@
       </c>
       <c r="T50" s="196">
         <f>_xll.qlMidEquivalent($P50,$Q50,$R50,$S50)</f>
-        <v>0.88749999999999996</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="U50" s="194"/>
       <c r="V50" s="195">
-        <v>0.90500000000000003</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="W50" s="194"/>
       <c r="X50" s="254">
-        <v>0.88749999999999996</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Y50" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F50,X50/100,Trigger)</f>
@@ -43471,10 +43474,10 @@
         <v>JPY20YOIS=ICAP</v>
       </c>
       <c r="P51" s="192">
-        <v>1.1475</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q51" s="192">
-        <v>1.2475000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="R51" s="192">
         <v>0</v>
@@ -43484,15 +43487,15 @@
       </c>
       <c r="T51" s="196">
         <f>_xll.qlMidEquivalent($P51,$Q51,$R51,$S51)</f>
-        <v>1.1975</v>
+        <v>1.2</v>
       </c>
       <c r="U51" s="194"/>
       <c r="V51" s="195">
-        <v>1.2124999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="W51" s="194"/>
       <c r="X51" s="254">
-        <v>1.1975</v>
+        <v>1.2</v>
       </c>
       <c r="Y51" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F51,X51/100,Trigger)</f>
@@ -43538,10 +43541,10 @@
         <v>JPY25YOIS=ICAP</v>
       </c>
       <c r="P52" s="192">
-        <v>1.3075000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="Q52" s="192">
-        <v>1.4075</v>
+        <v>1.41</v>
       </c>
       <c r="R52" s="192">
         <v>0</v>
@@ -43551,15 +43554,15 @@
       </c>
       <c r="T52" s="196">
         <f>_xll.qlMidEquivalent($P52,$Q52,$R52,$S52)</f>
-        <v>1.3574999999999999</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="U52" s="194"/>
       <c r="V52" s="195">
-        <v>1.37</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="W52" s="194"/>
       <c r="X52" s="254">
-        <v>1.3574999999999999</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="Y52" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F52,X52/100,Trigger)</f>
@@ -43672,10 +43675,10 @@
         <v>JPY30YOIS=ICAP</v>
       </c>
       <c r="P54" s="192">
-        <v>1.395</v>
+        <v>1.3975</v>
       </c>
       <c r="Q54" s="192">
-        <v>1.4950000000000001</v>
+        <v>1.4975000000000001</v>
       </c>
       <c r="R54" s="192">
         <v>0</v>
@@ -43685,15 +43688,15 @@
       </c>
       <c r="T54" s="196">
         <f>_xll.qlMidEquivalent($P54,$Q54,$R54,$S54)</f>
-        <v>1.4450000000000001</v>
+        <v>1.4475</v>
       </c>
       <c r="U54" s="194"/>
       <c r="V54" s="195">
-        <v>1.4550000000000001</v>
+        <v>1.4475</v>
       </c>
       <c r="W54" s="194"/>
       <c r="X54" s="254">
-        <v>1.4450000000000001</v>
+        <v>1.4475</v>
       </c>
       <c r="Y54" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F54,X54/100,Trigger)</f>
@@ -44484,7 +44487,7 @@
       <c r="AB3" s="108"/>
       <c r="AC3" s="223">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="162"/>
     </row>
@@ -44515,7 +44518,7 @@
       <c r="R4" s="142"/>
       <c r="S4" s="189" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="T4" s="243" t="s">
         <v>178</v>
@@ -47602,7 +47605,7 @@
   <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -47699,7 +47702,7 @@
       <c r="R3" s="108"/>
       <c r="S3" s="108" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(N5:N42,W5:W42),_xll.ohFilter(V5:V42,W5:W42))</f>
-        <v>obj_004dc#0003</v>
+        <v>obj_00490#0001</v>
       </c>
       <c r="T3" s="108"/>
       <c r="U3" s="108"/>
@@ -47712,7 +47715,7 @@
       <c r="AB3" s="108"/>
       <c r="AC3" s="223">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="162"/>
       <c r="AE3" s="13"/>
@@ -47749,7 +47752,7 @@
       <c r="R4" s="142"/>
       <c r="S4" s="189" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 15:52:04</v>
+        <v>Updated at 12:37:08</v>
       </c>
       <c r="T4" s="243" t="s">
         <v>178</v>
@@ -47935,7 +47938,7 @@
       <c r="X6" s="305"/>
       <c r="Y6" s="194"/>
       <c r="Z6" s="302">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AA6" s="194"/>
       <c r="AB6" s="399">
@@ -48020,8 +48023,8 @@
       </c>
       <c r="X7" s="305"/>
       <c r="Y7" s="194"/>
-      <c r="Z7" s="302">
-        <v>4.7781678328623478</v>
+      <c r="Z7" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA7" s="194"/>
       <c r="AB7" s="399" t="e">
@@ -48106,8 +48109,8 @@
       </c>
       <c r="X8" s="305"/>
       <c r="Y8" s="194"/>
-      <c r="Z8" s="302">
-        <v>4.8200685325797563</v>
+      <c r="Z8" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA8" s="194"/>
       <c r="AB8" s="399" t="e">
@@ -48192,8 +48195,8 @@
       </c>
       <c r="X9" s="305"/>
       <c r="Y9" s="194"/>
-      <c r="Z9" s="302">
-        <v>4.8894349660072862</v>
+      <c r="Z9" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA9" s="194"/>
       <c r="AB9" s="399" t="e">
@@ -48466,7 +48469,7 @@
       <c r="X12" s="305"/>
       <c r="Y12" s="194"/>
       <c r="Z12" s="302">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA12" s="194"/>
       <c r="AB12" s="399">
@@ -48539,14 +48542,14 @@
         <v>JPY3L6L5Y=ICAP</v>
       </c>
       <c r="T13" s="304">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="U13" s="304">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V13" s="304">
         <f>_xll.qlMidEquivalent(T13,U13)</f>
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W13" s="192" t="b">
         <f t="shared" si="2"/>
@@ -48555,11 +48558,11 @@
       <c r="X13" s="305"/>
       <c r="Y13" s="194"/>
       <c r="Z13" s="302">
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="AA13" s="194"/>
       <c r="AB13" s="399">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AC13" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/10000,Trigger)</f>
@@ -48644,7 +48647,7 @@
       <c r="X14" s="305"/>
       <c r="Y14" s="194"/>
       <c r="Z14" s="302">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA14" s="194"/>
       <c r="AB14" s="399">
@@ -48724,7 +48727,7 @@
       <c r="X15" s="305"/>
       <c r="Y15" s="194"/>
       <c r="Z15" s="302">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA15" s="194"/>
       <c r="AB15" s="399">
@@ -48804,7 +48807,7 @@
       <c r="X16" s="305"/>
       <c r="Y16" s="194"/>
       <c r="Z16" s="302">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA16" s="194"/>
       <c r="AB16" s="399">
@@ -48884,7 +48887,7 @@
       <c r="X17" s="305"/>
       <c r="Y17" s="194"/>
       <c r="Z17" s="302">
-        <v>11.25</v>
+        <v>12.25</v>
       </c>
       <c r="AA17" s="194"/>
       <c r="AB17" s="399">
@@ -48948,14 +48951,14 @@
         <v>JPY3L6L10Y=ICAP</v>
       </c>
       <c r="T18" s="304">
-        <v>12</v>
+        <v>12.25</v>
       </c>
       <c r="U18" s="304">
-        <v>14</v>
+        <v>14.25</v>
       </c>
       <c r="V18" s="304">
         <f>_xll.qlMidEquivalent(T18,U18)</f>
-        <v>13</v>
+        <v>13.25</v>
       </c>
       <c r="W18" s="192" t="b">
         <f t="shared" si="2"/>
@@ -48964,11 +48967,11 @@
       <c r="X18" s="305"/>
       <c r="Y18" s="194"/>
       <c r="Z18" s="302">
-        <v>12.25</v>
+        <v>13.25</v>
       </c>
       <c r="AA18" s="194"/>
       <c r="AB18" s="399">
-        <v>13</v>
+        <v>13.25</v>
       </c>
       <c r="AC18" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/10000,Trigger)</f>
@@ -49043,8 +49046,8 @@
       </c>
       <c r="X19" s="305"/>
       <c r="Y19" s="194"/>
-      <c r="Z19" s="302">
-        <v>13.062729442572024</v>
+      <c r="Z19" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA19" s="194"/>
       <c r="AB19" s="399" t="e">
@@ -49123,8 +49126,8 @@
       </c>
       <c r="X20" s="305"/>
       <c r="Y20" s="194"/>
-      <c r="Z20" s="302">
-        <v>13.593048954782699</v>
+      <c r="Z20" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA20" s="194"/>
       <c r="AB20" s="399" t="e">
@@ -49203,8 +49206,8 @@
       </c>
       <c r="X21" s="305"/>
       <c r="Y21" s="194"/>
-      <c r="Z21" s="302">
-        <v>13.917003745707358</v>
+      <c r="Z21" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA21" s="194"/>
       <c r="AB21" s="399" t="e">
@@ -49283,8 +49286,8 @@
       </c>
       <c r="X22" s="305"/>
       <c r="Y22" s="194"/>
-      <c r="Z22" s="302">
-        <v>14.110639024421346</v>
+      <c r="Z22" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA22" s="194"/>
       <c r="AB22" s="399" t="e">
@@ -49348,14 +49351,14 @@
         <v>JPY3L6L15Y=ICAP</v>
       </c>
       <c r="T23" s="304">
-        <v>13.75</v>
+        <v>14</v>
       </c>
       <c r="U23" s="304">
-        <v>15.75</v>
+        <v>16</v>
       </c>
       <c r="V23" s="304">
         <f>_xll.qlMidEquivalent(T23,U23)</f>
-        <v>14.75</v>
+        <v>15</v>
       </c>
       <c r="W23" s="192" t="b">
         <f t="shared" si="2"/>
@@ -49364,11 +49367,11 @@
       <c r="X23" s="305"/>
       <c r="Y23" s="194"/>
       <c r="Z23" s="302">
-        <v>14.25</v>
+        <v>15</v>
       </c>
       <c r="AA23" s="194"/>
       <c r="AB23" s="399">
-        <v>14.75</v>
+        <v>15</v>
       </c>
       <c r="AC23" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/10000,Trigger)</f>
@@ -49443,8 +49446,8 @@
       </c>
       <c r="X24" s="305"/>
       <c r="Y24" s="194"/>
-      <c r="Z24" s="302">
-        <v>14.404046225303105</v>
+      <c r="Z24" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA24" s="194"/>
       <c r="AB24" s="399" t="e">
@@ -49523,8 +49526,8 @@
       </c>
       <c r="X25" s="305"/>
       <c r="Y25" s="194"/>
-      <c r="Z25" s="302">
-        <v>14.577052003465992</v>
+      <c r="Z25" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA25" s="194"/>
       <c r="AB25" s="399" t="e">
@@ -49603,8 +49606,8 @@
       </c>
       <c r="X26" s="305"/>
       <c r="Y26" s="194"/>
-      <c r="Z26" s="302">
-        <v>14.748034668977329</v>
+      <c r="Z26" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA26" s="194"/>
       <c r="AB26" s="399" t="e">
@@ -49683,8 +49686,8 @@
       </c>
       <c r="X27" s="305"/>
       <c r="Y27" s="194"/>
-      <c r="Z27" s="302">
-        <v>14.896011556325776</v>
+      <c r="Z27" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA27" s="194"/>
       <c r="AB27" s="399" t="e">
@@ -49748,14 +49751,14 @@
         <v>JPY3L6L20Y=ICAP</v>
       </c>
       <c r="T28" s="304">
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
       <c r="U28" s="304">
-        <v>16.25</v>
+        <v>16.5</v>
       </c>
       <c r="V28" s="304">
         <f>_xll.qlMidEquivalent(T28,U28)</f>
-        <v>15.25</v>
+        <v>15.5</v>
       </c>
       <c r="W28" s="192" t="b">
         <f t="shared" si="2"/>
@@ -49764,11 +49767,11 @@
       <c r="X28" s="305"/>
       <c r="Y28" s="194"/>
       <c r="Z28" s="302">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA28" s="194"/>
       <c r="AB28" s="399">
-        <v>15.25</v>
+        <v>15.5</v>
       </c>
       <c r="AC28" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/10000,Trigger)</f>
@@ -49843,8 +49846,8 @@
       </c>
       <c r="X29" s="305"/>
       <c r="Y29" s="194"/>
-      <c r="Z29" s="302">
-        <v>15.06775</v>
+      <c r="Z29" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA29" s="194"/>
       <c r="AB29" s="399" t="e">
@@ -49923,8 +49926,8 @@
       </c>
       <c r="X30" s="305"/>
       <c r="Y30" s="194"/>
-      <c r="Z30" s="302">
-        <v>15.122</v>
+      <c r="Z30" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA30" s="194"/>
       <c r="AB30" s="399" t="e">
@@ -50003,8 +50006,8 @@
       </c>
       <c r="X31" s="305"/>
       <c r="Y31" s="194"/>
-      <c r="Z31" s="302">
-        <v>15.164249999999999</v>
+      <c r="Z31" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA31" s="194"/>
       <c r="AB31" s="399" t="e">
@@ -50083,8 +50086,8 @@
       </c>
       <c r="X32" s="305"/>
       <c r="Y32" s="194"/>
-      <c r="Z32" s="302">
-        <v>15.196</v>
+      <c r="Z32" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA32" s="194"/>
       <c r="AB32" s="399" t="e">
@@ -50163,8 +50166,8 @@
       </c>
       <c r="X33" s="305"/>
       <c r="Y33" s="194"/>
-      <c r="Z33" s="302">
-        <v>15.21875</v>
+      <c r="Z33" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA33" s="194"/>
       <c r="AB33" s="399" t="e">
@@ -50243,8 +50246,8 @@
       </c>
       <c r="X34" s="305"/>
       <c r="Y34" s="194"/>
-      <c r="Z34" s="302">
-        <v>15.234</v>
+      <c r="Z34" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA34" s="194"/>
       <c r="AB34" s="399" t="e">
@@ -50323,8 +50326,8 @@
       </c>
       <c r="X35" s="305"/>
       <c r="Y35" s="194"/>
-      <c r="Z35" s="302">
-        <v>15.24325</v>
+      <c r="Z35" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA35" s="194"/>
       <c r="AB35" s="399" t="e">
@@ -50403,8 +50406,8 @@
       </c>
       <c r="X36" s="305"/>
       <c r="Y36" s="194"/>
-      <c r="Z36" s="302">
-        <v>15.247999999999999</v>
+      <c r="Z36" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA36" s="194"/>
       <c r="AB36" s="399" t="e">
@@ -50483,8 +50486,8 @@
       </c>
       <c r="X37" s="305"/>
       <c r="Y37" s="194"/>
-      <c r="Z37" s="302">
-        <v>15.249750000000001</v>
+      <c r="Z37" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA37" s="194"/>
       <c r="AB37" s="399" t="e">
@@ -50548,14 +50551,14 @@
         <v>JPY3L6L30Y=ICAP</v>
       </c>
       <c r="T38" s="304">
-        <v>14.75</v>
+        <v>15</v>
       </c>
       <c r="U38" s="304">
-        <v>16.75</v>
+        <v>17</v>
       </c>
       <c r="V38" s="304">
         <f>_xll.qlMidEquivalent(T38,U38)</f>
-        <v>15.75</v>
+        <v>16</v>
       </c>
       <c r="W38" s="192" t="b">
         <f t="shared" si="2"/>
@@ -50564,11 +50567,11 @@
       <c r="X38" s="305"/>
       <c r="Y38" s="194"/>
       <c r="Z38" s="302">
-        <v>15.25</v>
+        <v>16</v>
       </c>
       <c r="AA38" s="194"/>
       <c r="AB38" s="399">
-        <v>15.75</v>
+        <v>16</v>
       </c>
       <c r="AC38" s="191">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/10000,Trigger)</f>
@@ -50643,8 +50646,8 @@
       </c>
       <c r="X39" s="305"/>
       <c r="Y39" s="194"/>
-      <c r="Z39" s="302">
-        <v>15.25</v>
+      <c r="Z39" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA39" s="194"/>
       <c r="AB39" s="399" t="e">
@@ -50723,8 +50726,8 @@
       </c>
       <c r="X40" s="305"/>
       <c r="Y40" s="194"/>
-      <c r="Z40" s="302">
-        <v>15.25</v>
+      <c r="Z40" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA40" s="194"/>
       <c r="AB40" s="399" t="e">
@@ -50803,8 +50806,8 @@
       </c>
       <c r="X41" s="305"/>
       <c r="Y41" s="194"/>
-      <c r="Z41" s="302">
-        <v>15.25</v>
+      <c r="Z41" s="302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA41" s="194"/>
       <c r="AB41" s="399" t="e">
@@ -50883,8 +50886,8 @@
       </c>
       <c r="X42" s="506"/>
       <c r="Y42" s="194"/>
-      <c r="Z42" s="299">
-        <v>15.25</v>
+      <c r="Z42" s="299" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="AA42" s="194"/>
       <c r="AB42" s="400" t="e">
